--- a/main/catalogue/DATA SETUP.xlsx
+++ b/main/catalogue/DATA SETUP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cypherjac.CYPHERJAC\Desktop\Projects\catalogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\catalogue_app\main\catalogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2D7BE-F12E-4AE7-B858-565AA5100E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="2"/>
+    <workbookView xWindow="870" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WAREHOUSES" sheetId="7" r:id="rId1"/>
@@ -18,13 +19,14 @@
     <sheet name="BUYERS" sheetId="3" r:id="rId4"/>
     <sheet name="TEA GRADES" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4235,7 +4237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5107,6 +5109,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5142,6 +5161,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5317,26 +5353,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J95"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="64" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="61.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
     <col min="8" max="8" width="67" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="148" t="s">
         <v>713</v>
       </c>
@@ -5348,7 +5384,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -5371,7 +5407,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="56">
         <v>1</v>
       </c>
@@ -5395,7 +5431,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>392</v>
@@ -5411,7 +5447,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="3:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>394</v>
@@ -5427,7 +5463,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
         <v>392</v>
@@ -5439,7 +5475,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -5463,7 +5499,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
         <v>398</v>
@@ -5477,7 +5513,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>400</v>
@@ -5491,7 +5527,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -5513,7 +5549,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
         <v>1010</v>
@@ -5527,7 +5563,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>4</v>
       </c>
@@ -5553,7 +5589,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>714</v>
@@ -5567,7 +5603,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>404</v>
@@ -5581,7 +5617,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>406</v>
@@ -5595,7 +5631,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
         <v>408</v>
@@ -5609,7 +5645,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>410</v>
@@ -5623,7 +5659,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
         <v>412</v>
@@ -5637,7 +5673,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
         <v>414</v>
@@ -5651,7 +5687,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>416</v>
@@ -5665,7 +5701,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -5689,7 +5725,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
         <v>419</v>
@@ -5703,7 +5739,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
         <v>421</v>
@@ -5717,7 +5753,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
         <v>423</v>
@@ -5731,7 +5767,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
         <v>425</v>
@@ -5745,7 +5781,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
         <v>462</v>
@@ -5759,7 +5795,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
         <v>686</v>
@@ -5773,7 +5809,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
         <v>427</v>
@@ -5787,7 +5823,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
         <v>715</v>
@@ -5801,7 +5837,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="66"/>
       <c r="D30" s="67" t="s">
         <v>727</v>
@@ -5815,7 +5851,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="66"/>
       <c r="D31" s="71" t="s">
         <v>729</v>
@@ -5829,7 +5865,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="66"/>
       <c r="D32" s="71" t="s">
         <v>922</v>
@@ -5843,7 +5879,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="66"/>
       <c r="D33" s="71" t="s">
         <v>929</v>
@@ -5857,7 +5893,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="66">
         <v>6</v>
       </c>
@@ -5881,7 +5917,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="66"/>
       <c r="D35" s="71" t="s">
         <v>967</v>
@@ -5895,7 +5931,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="66">
         <v>7</v>
       </c>
@@ -5921,7 +5957,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>8</v>
       </c>
@@ -5945,7 +5981,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
         <v>490</v>
@@ -5959,7 +5995,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
         <v>491</v>
@@ -5973,7 +6009,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
         <v>492</v>
@@ -5987,7 +6023,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
         <v>493</v>
@@ -6001,7 +6037,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
         <v>494</v>
@@ -6015,7 +6051,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
         <v>495</v>
@@ -6029,7 +6065,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -6043,7 +6079,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
         <v>497</v>
@@ -6057,7 +6093,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <v>9</v>
       </c>
@@ -6081,7 +6117,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
         <v>882</v>
@@ -6095,7 +6131,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="4" t="s">
         <v>931</v>
@@ -6109,7 +6145,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>10</v>
       </c>
@@ -6133,7 +6169,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="4" t="s">
         <v>434</v>
@@ -6147,7 +6183,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
         <v>436</v>
@@ -6161,7 +6197,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="4" t="s">
         <v>594</v>
@@ -6175,7 +6211,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="3:10" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:10" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="D53" s="72" t="s">
         <v>1016</v>
@@ -6189,7 +6225,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="3:10" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:10" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="72" t="s">
         <v>734</v>
@@ -6203,7 +6239,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="74" t="s">
         <v>1017</v>
@@ -6217,7 +6253,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="23" t="s">
         <v>781</v>
@@ -6231,7 +6267,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="23" t="s">
         <v>925</v>
@@ -6245,7 +6281,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="75" t="s">
         <v>1019</v>
@@ -6259,7 +6295,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="75" t="s">
         <v>1296</v>
@@ -6273,7 +6309,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
         <v>11</v>
       </c>
@@ -6295,7 +6331,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="75" t="s">
         <v>1103</v>
@@ -6309,7 +6345,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
         <v>12</v>
       </c>
@@ -6331,7 +6367,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="75" t="s">
         <v>1133</v>
@@ -6345,7 +6381,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
         <v>13</v>
       </c>
@@ -6369,7 +6405,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
         <v>988</v>
@@ -6385,7 +6421,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
         <v>1293</v>
@@ -6401,7 +6437,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
         <v>14</v>
       </c>
@@ -6425,7 +6461,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
         <v>915</v>
@@ -6441,7 +6477,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="4" t="s">
         <v>916</v>
@@ -6457,7 +6493,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
         <v>918</v>
@@ -6473,7 +6509,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
         <v>947</v>
@@ -6489,7 +6525,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
         <v>1140</v>
@@ -6503,7 +6539,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
         <v>1145</v>
@@ -6517,7 +6553,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="3">
         <v>15</v>
       </c>
@@ -6543,7 +6579,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="D75" s="4" t="s">
         <v>1227</v>
@@ -6557,7 +6593,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
         <v>1228</v>
@@ -6571,7 +6607,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="3">
         <v>16</v>
       </c>
@@ -6595,7 +6631,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="4" t="s">
         <v>449</v>
@@ -6609,7 +6645,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="4" t="s">
         <v>451</v>
@@ -6623,7 +6659,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="3">
         <v>17</v>
       </c>
@@ -6649,7 +6685,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
         <v>456</v>
@@ -6663,7 +6699,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="4" t="s">
         <v>458</v>
@@ -6677,7 +6713,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="84" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C84" s="148" t="s">
         <v>1326</v>
       </c>
@@ -6689,7 +6725,7 @@
       <c r="I84" s="148"/>
       <c r="J84" s="148"/>
     </row>
-    <row r="85" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D85" s="112" t="s">
         <v>693</v>
       </c>
@@ -6712,7 +6748,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="81"/>
       <c r="C86" s="3">
         <v>18</v>
@@ -6737,7 +6773,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="3">
         <v>19</v>
@@ -6762,7 +6798,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="3">
         <v>20</v>
@@ -6789,7 +6825,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="3">
         <v>21</v>
@@ -6812,7 +6848,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="3">
         <v>22</v>
@@ -6837,7 +6873,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="3">
         <v>23</v>
@@ -6860,7 +6896,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="3">
         <v>24</v>
@@ -6887,7 +6923,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="3">
         <v>25</v>
@@ -6912,7 +6948,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="3">
         <v>26</v>
@@ -6939,7 +6975,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="3">
         <v>27</v>
@@ -6970,56 +7006,56 @@
     <mergeCell ref="C84:J84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1"/>
-    <hyperlink ref="J49" r:id="rId2"/>
-    <hyperlink ref="J74" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J77" r:id="rId5"/>
-    <hyperlink ref="J80" r:id="rId6"/>
-    <hyperlink ref="J64" r:id="rId7"/>
-    <hyperlink ref="J65" r:id="rId8"/>
-    <hyperlink ref="J21" r:id="rId9"/>
-    <hyperlink ref="J67" r:id="rId10"/>
-    <hyperlink ref="J7" r:id="rId11"/>
-    <hyperlink ref="J37" r:id="rId12"/>
-    <hyperlink ref="J36" r:id="rId13"/>
-    <hyperlink ref="J46" r:id="rId14"/>
-    <hyperlink ref="J34" r:id="rId15"/>
-    <hyperlink ref="J10" r:id="rId16"/>
-    <hyperlink ref="J62" r:id="rId17"/>
-    <hyperlink ref="J66" r:id="rId18"/>
-    <hyperlink ref="J87" r:id="rId19"/>
-    <hyperlink ref="J90" r:id="rId20"/>
-    <hyperlink ref="J91" r:id="rId21" display="mailto:ALKHALIFAENTERPRISES@gmail.com"/>
-    <hyperlink ref="J94" r:id="rId22"/>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J74" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J64" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J65" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J67" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J62" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J66" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J87" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J90" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J91" r:id="rId21" display="mailto:ALKHALIFAENTERPRISES@gmail.com" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J94" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-    <col min="8" max="8" width="71.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="8" width="71.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="148" t="s">
         <v>1325</v>
       </c>
@@ -7031,7 +7067,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -7054,7 +7090,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="56">
         <v>1</v>
       </c>
@@ -7080,7 +7116,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="56">
         <v>2</v>
       </c>
@@ -7102,7 +7138,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="56">
         <v>3</v>
       </c>
@@ -7128,7 +7164,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="56">
         <v>4</v>
       </c>
@@ -7150,7 +7186,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="56">
         <v>5</v>
       </c>
@@ -7176,7 +7212,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="56">
         <v>6</v>
       </c>
@@ -7200,7 +7236,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="56">
         <v>7</v>
       </c>
@@ -7224,7 +7260,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="56">
         <v>8</v>
       </c>
@@ -7250,7 +7286,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="56">
         <v>9</v>
       </c>
@@ -7274,7 +7310,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="56">
         <v>10</v>
       </c>
@@ -7300,7 +7336,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="56">
         <v>11</v>
       </c>
@@ -7322,7 +7358,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="56">
         <v>12</v>
       </c>
@@ -7346,7 +7382,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="56">
         <v>13</v>
       </c>
@@ -7370,7 +7406,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="56">
         <v>14</v>
       </c>
@@ -7401,44 +7437,44 @@
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J14" r:id="rId1"/>
-    <hyperlink ref="J16" r:id="rId2"/>
-    <hyperlink ref="J7" r:id="rId3"/>
-    <hyperlink ref="J12" r:id="rId4"/>
-    <hyperlink ref="J3" r:id="rId5"/>
-    <hyperlink ref="J10" r:id="rId6"/>
-    <hyperlink ref="J4" r:id="rId7"/>
-    <hyperlink ref="J13" r:id="rId8"/>
-    <hyperlink ref="J6" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J15" r:id="rId11"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="67" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="67" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="84" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" customWidth="1"/>
-    <col min="10" max="10" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="84" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
     <col min="11" max="11" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
@@ -7463,7 +7499,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
         <v>825</v>
       </c>
@@ -7476,7 +7512,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="97"/>
       <c r="D4" s="98">
         <v>1</v>
@@ -7499,7 +7535,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="79"/>
       <c r="D5" s="6">
         <v>2</v>
@@ -7522,7 +7558,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="79"/>
       <c r="D6" s="6">
         <v>3</v>
@@ -7545,7 +7581,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="79"/>
       <c r="D7" s="6">
         <v>4</v>
@@ -7568,7 +7604,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="21"/>
       <c r="D8" s="6">
         <v>5</v>
@@ -7591,7 +7627,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="6">
         <v>6</v>
@@ -7616,7 +7652,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="24"/>
       <c r="D10" s="6">
         <v>7</v>
@@ -7643,7 +7679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="26"/>
       <c r="D11" s="6">
         <v>8</v>
@@ -7666,7 +7702,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="24"/>
       <c r="D12" s="6">
         <v>9</v>
@@ -7689,7 +7725,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="24"/>
       <c r="D13" s="6">
         <v>10</v>
@@ -7712,7 +7748,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="49"/>
       <c r="D14" s="6">
         <v>11</v>
@@ -7735,7 +7771,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="24"/>
       <c r="D15" s="6">
         <v>12</v>
@@ -7762,7 +7798,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="24"/>
       <c r="D16" s="6">
         <v>13</v>
@@ -7787,7 +7823,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="24"/>
       <c r="D17" s="6">
         <v>14</v>
@@ -7814,7 +7850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="24"/>
       <c r="D18" s="6">
         <v>15</v>
@@ -7841,7 +7877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="34"/>
       <c r="D19" s="6">
         <v>16</v>
@@ -7866,7 +7902,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="24"/>
       <c r="D20" s="6">
         <v>17</v>
@@ -7893,7 +7929,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="24"/>
       <c r="D21" s="6">
         <v>18</v>
@@ -7918,7 +7954,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="24"/>
       <c r="D22" s="6">
         <v>19</v>
@@ -7943,7 +7979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="26"/>
       <c r="D23" s="6">
         <v>20</v>
@@ -7966,7 +8002,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="24"/>
       <c r="D24" s="6">
         <v>21</v>
@@ -7991,7 +8027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="49"/>
       <c r="D25" s="6">
         <v>22</v>
@@ -8014,7 +8050,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="26"/>
       <c r="D26" s="6">
         <v>23</v>
@@ -8039,7 +8075,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
       <c r="D27" s="6">
         <v>24</v>
@@ -8064,7 +8100,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="24"/>
       <c r="D28" s="6">
         <v>25</v>
@@ -8087,7 +8123,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
       <c r="D29" s="6">
         <v>26</v>
@@ -8114,7 +8150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="24"/>
       <c r="D30" s="6">
         <v>27</v>
@@ -8139,7 +8175,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="24"/>
       <c r="D31" s="6">
         <v>28</v>
@@ -8162,7 +8198,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="24"/>
       <c r="D32" s="6">
         <v>29</v>
@@ -8185,7 +8221,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="24"/>
       <c r="D33" s="6">
         <v>30</v>
@@ -8210,7 +8246,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
       <c r="D34" s="6">
         <v>31</v>
@@ -8233,7 +8269,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="26"/>
       <c r="D35" s="6">
         <v>32</v>
@@ -8256,7 +8292,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="24"/>
       <c r="D36" s="6">
         <v>33</v>
@@ -8283,7 +8319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="24"/>
       <c r="D37" s="6">
         <v>34</v>
@@ -8308,7 +8344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="49"/>
       <c r="D38" s="6">
         <v>35</v>
@@ -8331,7 +8367,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="24"/>
       <c r="D39" s="6">
         <v>36</v>
@@ -8358,7 +8394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="24"/>
       <c r="D40" s="6">
         <v>37</v>
@@ -8385,7 +8421,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="24"/>
       <c r="D41" s="6">
         <v>38</v>
@@ -8412,7 +8448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="24"/>
       <c r="D42" s="6">
         <v>39</v>
@@ -8439,7 +8475,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="26"/>
       <c r="D43" s="6">
         <v>40</v>
@@ -8464,7 +8500,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="104"/>
       <c r="D44" s="98">
         <v>41</v>
@@ -8487,7 +8523,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="104"/>
       <c r="D45" s="98">
         <v>42</v>
@@ -8510,7 +8546,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="104"/>
       <c r="D46" s="98">
         <v>43</v>
@@ -8533,7 +8569,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="24"/>
       <c r="D47" s="6">
         <v>44</v>
@@ -8560,7 +8596,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="43"/>
       <c r="D48" s="6">
         <v>45</v>
@@ -8587,7 +8623,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="18" t="s">
         <v>64</v>
       </c>
@@ -8614,7 +8650,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="44"/>
       <c r="D50" s="6">
         <v>47</v>
@@ -8637,7 +8673,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46"/>
       <c r="D51" s="6">
         <v>48</v>
@@ -8662,7 +8698,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="26"/>
       <c r="D52" s="6">
         <v>49</v>
@@ -8689,7 +8725,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="26"/>
       <c r="D53" s="6">
         <v>50</v>
@@ -8712,7 +8748,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="54" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="24"/>
       <c r="D54" s="6">
         <v>51</v>
@@ -8737,7 +8773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="24"/>
       <c r="D55" s="6">
         <v>52</v>
@@ -8762,7 +8798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="24"/>
       <c r="D56" s="6">
         <v>53</v>
@@ -8785,7 +8821,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="24"/>
       <c r="D57" s="6">
         <v>54</v>
@@ -8810,7 +8846,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="24"/>
       <c r="D58" s="6">
         <v>55</v>
@@ -8833,7 +8869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="24"/>
       <c r="D59" s="6">
         <v>56</v>
@@ -8858,7 +8894,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="24"/>
       <c r="D60" s="6">
         <v>57</v>
@@ -8883,7 +8919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="24"/>
       <c r="D61" s="6">
         <v>58</v>
@@ -8908,7 +8944,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="62" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="24"/>
       <c r="D62" s="6">
         <v>59</v>
@@ -8933,7 +8969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="24"/>
       <c r="D63" s="6">
         <v>60</v>
@@ -8958,7 +8994,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="48"/>
       <c r="D64" s="6">
         <v>61</v>
@@ -8983,7 +9019,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="24"/>
       <c r="D65" s="6">
         <v>62</v>
@@ -9010,7 +9046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="24"/>
       <c r="D66" s="6">
         <v>63</v>
@@ -9033,7 +9069,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="24"/>
       <c r="D67" s="6">
         <v>64</v>
@@ -9060,7 +9096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="18" t="s">
         <v>113</v>
       </c>
@@ -9087,7 +9123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="49"/>
       <c r="D69" s="6">
         <v>66</v>
@@ -9114,7 +9150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="49"/>
       <c r="D70" s="6">
         <v>67</v>
@@ -9139,7 +9175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="49"/>
       <c r="D71" s="6">
         <v>68</v>
@@ -9164,7 +9200,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="49"/>
       <c r="D72" s="6">
         <v>69</v>
@@ -9189,7 +9225,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="49"/>
       <c r="D73" s="6">
         <v>70</v>
@@ -9214,7 +9250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="6">
         <v>71</v>
@@ -9239,7 +9275,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="18" t="s">
         <v>132</v>
       </c>
@@ -9264,7 +9300,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="6">
         <v>73</v>
@@ -9289,7 +9325,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="6">
         <v>74</v>
@@ -9314,7 +9350,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="24"/>
       <c r="D78" s="6">
         <v>75</v>
@@ -9339,7 +9375,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="24"/>
       <c r="D79" s="6">
         <v>76</v>
@@ -9366,7 +9402,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="80" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="24"/>
       <c r="D80" s="6">
         <v>77</v>
@@ -9391,7 +9427,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="6">
         <v>78</v>
@@ -9414,7 +9450,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="82" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="24"/>
       <c r="D82" s="6">
         <v>79</v>
@@ -9439,7 +9475,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="24"/>
       <c r="D83" s="6">
         <v>80</v>
@@ -9464,7 +9500,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="84" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="24"/>
       <c r="D84" s="6">
         <v>81</v>
@@ -9491,7 +9527,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="24"/>
       <c r="D85" s="6">
         <v>82</v>
@@ -9514,7 +9550,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="24"/>
       <c r="D86" s="6">
         <v>83</v>
@@ -9539,7 +9575,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="87" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="18" t="s">
         <v>143</v>
       </c>
@@ -9568,7 +9604,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="88" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="24"/>
       <c r="D88" s="6">
         <v>85</v>
@@ -9593,7 +9629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="53" t="s">
         <v>152</v>
       </c>
@@ -9620,7 +9656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="24"/>
       <c r="D90" s="6">
         <v>87</v>
@@ -9643,7 +9679,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="91" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="18" t="s">
         <v>157</v>
       </c>
@@ -9670,7 +9706,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="49"/>
       <c r="D92" s="6">
         <v>89</v>
@@ -9695,7 +9731,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="18" t="s">
         <v>470</v>
       </c>
@@ -9722,7 +9758,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="94" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="18" t="s">
         <v>170</v>
       </c>
@@ -9749,7 +9785,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="95" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="6">
         <v>92</v>
@@ -9776,7 +9812,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="18" t="s">
         <v>872</v>
       </c>
@@ -9805,88 +9841,88 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K58" r:id="rId1"/>
-    <hyperlink ref="K69" r:id="rId2"/>
-    <hyperlink ref="K62" r:id="rId3"/>
-    <hyperlink ref="K86" r:id="rId4"/>
-    <hyperlink ref="K68" r:id="rId5"/>
-    <hyperlink ref="K67" r:id="rId6"/>
-    <hyperlink ref="K54" r:id="rId7" display="kijuratea@yahoo.com"/>
-    <hyperlink ref="K65" r:id="rId8"/>
-    <hyperlink ref="K84" r:id="rId9"/>
-    <hyperlink ref="K57" r:id="rId10"/>
-    <hyperlink ref="K55" r:id="rId11"/>
-    <hyperlink ref="K60" r:id="rId12"/>
-    <hyperlink ref="K88" r:id="rId13"/>
-    <hyperlink ref="K91" r:id="rId14"/>
-    <hyperlink ref="K52" r:id="rId15"/>
-    <hyperlink ref="K73" r:id="rId16"/>
-    <hyperlink ref="K92" r:id="rId17"/>
-    <hyperlink ref="K48" r:id="rId18"/>
-    <hyperlink ref="K21" r:id="rId19"/>
-    <hyperlink ref="K12" r:id="rId20"/>
-    <hyperlink ref="K30" r:id="rId21"/>
-    <hyperlink ref="K9" r:id="rId22" display="mailto:moses@thedlgroup.com"/>
-    <hyperlink ref="K49" r:id="rId23"/>
-    <hyperlink ref="K17" r:id="rId24"/>
-    <hyperlink ref="K16" r:id="rId25"/>
-    <hyperlink ref="K41" r:id="rId26"/>
-    <hyperlink ref="K10" r:id="rId27"/>
-    <hyperlink ref="K39" r:id="rId28"/>
-    <hyperlink ref="K18" r:id="rId29"/>
-    <hyperlink ref="K36" r:id="rId30"/>
-    <hyperlink ref="K33" r:id="rId31"/>
-    <hyperlink ref="K22" r:id="rId32"/>
-    <hyperlink ref="K29" r:id="rId33"/>
-    <hyperlink ref="K24" r:id="rId34"/>
-    <hyperlink ref="K27" r:id="rId35"/>
-    <hyperlink ref="K66" r:id="rId36"/>
-    <hyperlink ref="K94" r:id="rId37"/>
-    <hyperlink ref="K56" r:id="rId38"/>
-    <hyperlink ref="K61" r:id="rId39" display="mailto:nyambya@gmail.com"/>
-    <hyperlink ref="K82" r:id="rId40"/>
-    <hyperlink ref="K59" r:id="rId41" display="mailto:gm.tea@madhvanitea.co.ug"/>
-    <hyperlink ref="K26" r:id="rId42"/>
-    <hyperlink ref="K50" r:id="rId43"/>
-    <hyperlink ref="K90" r:id="rId44"/>
-    <hyperlink ref="K96" r:id="rId45"/>
-    <hyperlink ref="K35" r:id="rId46"/>
-    <hyperlink ref="K4" r:id="rId47"/>
-    <hyperlink ref="K11" r:id="rId48"/>
-    <hyperlink ref="K76" r:id="rId49"/>
-    <hyperlink ref="K77" r:id="rId50"/>
-    <hyperlink ref="K74" r:id="rId51"/>
-    <hyperlink ref="K78" r:id="rId52"/>
-    <hyperlink ref="K40" r:id="rId53"/>
-    <hyperlink ref="K85" r:id="rId54"/>
-    <hyperlink ref="K81" r:id="rId55"/>
-    <hyperlink ref="K13" r:id="rId56"/>
-    <hyperlink ref="K43" r:id="rId57"/>
-    <hyperlink ref="K51" r:id="rId58"/>
-    <hyperlink ref="K64" r:id="rId59"/>
-    <hyperlink ref="K34" r:id="rId60"/>
-    <hyperlink ref="K72" r:id="rId61"/>
-    <hyperlink ref="K70" r:id="rId62"/>
-    <hyperlink ref="K31" r:id="rId63"/>
-    <hyperlink ref="K89" r:id="rId64"/>
-    <hyperlink ref="K20" r:id="rId65"/>
-    <hyperlink ref="K53" r:id="rId66"/>
-    <hyperlink ref="K45" r:id="rId67"/>
-    <hyperlink ref="K28" r:id="rId68"/>
-    <hyperlink ref="K8" r:id="rId69"/>
-    <hyperlink ref="K93" r:id="rId70"/>
-    <hyperlink ref="K38" r:id="rId71"/>
-    <hyperlink ref="K14" r:id="rId72"/>
-    <hyperlink ref="K23" r:id="rId73"/>
-    <hyperlink ref="K7" r:id="rId74"/>
-    <hyperlink ref="K25" r:id="rId75"/>
-    <hyperlink ref="K75" r:id="rId76"/>
-    <hyperlink ref="K32" r:id="rId77"/>
-    <hyperlink ref="K37" r:id="rId78"/>
-    <hyperlink ref="K6" r:id="rId79"/>
-    <hyperlink ref="K83" r:id="rId80"/>
-    <hyperlink ref="K46" r:id="rId81"/>
-    <hyperlink ref="K44" r:id="rId82"/>
+    <hyperlink ref="K58" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K69" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K62" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K86" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="K68" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K67" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K54" r:id="rId7" display="kijuratea@yahoo.com" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K65" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K84" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K57" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="K55" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K60" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="K88" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K91" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="K52" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K73" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K92" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="K48" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="K21" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="K12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="K30" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="K9" r:id="rId22" display="mailto:moses@thedlgroup.com" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="K49" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="K17" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="K16" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="K41" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="K10" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="K39" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="K18" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="K36" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="K33" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="K22" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="K29" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="K24" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="K27" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="K66" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="K94" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="K56" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="K61" r:id="rId39" display="mailto:nyambya@gmail.com" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="K82" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="K59" r:id="rId41" display="mailto:gm.tea@madhvanitea.co.ug" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="K26" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="K50" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K90" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="K96" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="K35" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K4" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="K11" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K76" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K77" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="K74" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="K78" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="K40" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="K85" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="K81" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="K13" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="K43" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="K51" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="K64" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="K34" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="K72" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="K70" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="K31" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="K89" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="K20" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="K53" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="K45" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="K28" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="K8" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="K38" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="K14" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="K23" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="K7" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="K25" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="K75" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="K32" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="K37" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="K6" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="K83" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="K46" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="K44" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId83"/>
@@ -9894,26 +9930,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J97"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
-    <col min="9" max="9" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="148" t="s">
         <v>1324</v>
       </c>
@@ -9925,7 +9961,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -9948,7 +9984,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="113">
         <v>1</v>
       </c>
@@ -9972,7 +10008,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="113">
         <v>2</v>
       </c>
@@ -9996,7 +10032,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="113">
         <v>3</v>
       </c>
@@ -10020,7 +10056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="113">
         <v>4</v>
@@ -10045,7 +10081,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="113">
         <v>5</v>
       </c>
@@ -10067,7 +10103,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="113">
         <v>6</v>
       </c>
@@ -10091,7 +10127,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="113">
         <v>7</v>
       </c>
@@ -10113,7 +10149,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="113">
         <v>8</v>
       </c>
@@ -10135,7 +10171,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="113">
         <v>9</v>
       </c>
@@ -10161,7 +10197,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="113">
         <v>10</v>
       </c>
@@ -10187,7 +10223,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="113">
         <v>11</v>
       </c>
@@ -10211,7 +10247,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="113">
         <v>12</v>
       </c>
@@ -10235,7 +10271,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="115">
         <v>13</v>
       </c>
@@ -10257,7 +10293,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="113">
         <v>14</v>
       </c>
@@ -10281,7 +10317,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="113">
         <v>15</v>
       </c>
@@ -10307,7 +10343,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="113">
         <v>16</v>
       </c>
@@ -10331,7 +10367,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="113">
         <v>17</v>
       </c>
@@ -10353,7 +10389,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="113">
         <v>18</v>
       </c>
@@ -10377,7 +10413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="113">
         <v>19</v>
       </c>
@@ -10403,7 +10439,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="113">
         <v>20</v>
       </c>
@@ -10425,7 +10461,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="113">
         <v>21</v>
       </c>
@@ -10449,7 +10485,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="113">
         <v>22</v>
       </c>
@@ -10473,7 +10509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="113">
         <v>23</v>
       </c>
@@ -10495,7 +10531,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="113">
         <v>24</v>
       </c>
@@ -10519,7 +10555,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="113">
         <v>25</v>
       </c>
@@ -10541,7 +10577,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="113">
         <v>26</v>
       </c>
@@ -10567,7 +10603,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="113">
         <v>27</v>
       </c>
@@ -10591,7 +10627,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="113">
         <v>28</v>
       </c>
@@ -10615,7 +10651,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="113">
         <v>29</v>
       </c>
@@ -10639,7 +10675,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="113">
         <v>30</v>
       </c>
@@ -10661,7 +10697,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="113">
         <v>31</v>
       </c>
@@ -10685,7 +10721,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="115">
         <v>32</v>
       </c>
@@ -10707,7 +10743,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="115">
         <v>33</v>
       </c>
@@ -10729,7 +10765,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="113">
         <v>34</v>
       </c>
@@ -10755,7 +10791,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="113">
         <v>35</v>
       </c>
@@ -10781,7 +10817,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="113">
         <v>36</v>
       </c>
@@ -10803,7 +10839,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="113">
         <v>37</v>
       </c>
@@ -10827,7 +10863,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="113">
         <v>38</v>
       </c>
@@ -10849,7 +10885,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="113">
         <v>39</v>
       </c>
@@ -10871,7 +10907,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="113">
         <v>40</v>
       </c>
@@ -10893,7 +10929,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="113">
         <v>41</v>
       </c>
@@ -10917,7 +10953,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="113">
         <v>42</v>
       </c>
@@ -10939,7 +10975,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="113">
         <v>43</v>
       </c>
@@ -10963,7 +10999,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="113">
         <v>44</v>
       </c>
@@ -10987,7 +11023,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="113">
         <v>45</v>
       </c>
@@ -11009,7 +11045,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="113">
         <v>46</v>
       </c>
@@ -11033,7 +11069,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="113">
         <v>47</v>
       </c>
@@ -11057,7 +11093,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="113">
         <v>48</v>
       </c>
@@ -11081,7 +11117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="113">
         <v>49</v>
       </c>
@@ -11105,7 +11141,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="113">
         <v>50</v>
       </c>
@@ -11127,7 +11163,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="113">
         <v>51</v>
       </c>
@@ -11151,7 +11187,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="113">
         <v>52</v>
       </c>
@@ -11173,7 +11209,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="113">
         <v>53</v>
       </c>
@@ -11197,7 +11233,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="113">
         <v>54</v>
       </c>
@@ -11223,7 +11259,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="113">
         <v>55</v>
       </c>
@@ -11247,7 +11283,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="113">
         <v>56</v>
       </c>
@@ -11273,7 +11309,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="113">
         <v>57</v>
       </c>
@@ -11299,7 +11335,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="113">
         <v>58</v>
       </c>
@@ -11321,7 +11357,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="113">
         <v>59</v>
       </c>
@@ -11343,7 +11379,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="113">
         <v>60</v>
       </c>
@@ -11365,7 +11401,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="113">
         <v>61</v>
       </c>
@@ -11389,7 +11425,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="113">
         <v>62</v>
       </c>
@@ -11415,7 +11451,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="113">
         <v>63</v>
       </c>
@@ -11441,7 +11477,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="113">
         <v>64</v>
       </c>
@@ -11467,7 +11503,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="113">
         <v>65</v>
       </c>
@@ -11489,7 +11525,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="113">
         <v>66</v>
       </c>
@@ -11511,7 +11547,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="69" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="113">
         <v>67</v>
       </c>
@@ -11533,7 +11569,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="70" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="113">
         <v>68</v>
       </c>
@@ -11557,7 +11593,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="71" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="113">
         <v>69</v>
       </c>
@@ -11583,7 +11619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="113">
         <v>70</v>
       </c>
@@ -11607,7 +11643,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="113">
         <v>71</v>
       </c>
@@ -11631,7 +11667,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="74" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="113">
         <v>72</v>
       </c>
@@ -11653,7 +11689,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="75" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="113">
         <v>73</v>
       </c>
@@ -11677,7 +11713,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="76" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="113">
         <v>74</v>
       </c>
@@ -11703,7 +11739,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="77" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="113">
         <v>75</v>
       </c>
@@ -11725,7 +11761,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="78" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="113">
         <v>76</v>
       </c>
@@ -11751,7 +11787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="113">
         <v>77</v>
       </c>
@@ -11775,7 +11811,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="113">
         <v>78</v>
       </c>
@@ -11799,7 +11835,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="81" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="113">
         <v>79</v>
       </c>
@@ -11823,7 +11859,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="82" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="113">
         <v>80</v>
       </c>
@@ -11849,7 +11885,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="83" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="113">
         <v>81</v>
       </c>
@@ -11873,7 +11909,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="84" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="113">
         <v>82</v>
       </c>
@@ -11897,7 +11933,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="85" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="113">
         <v>83</v>
       </c>
@@ -11919,7 +11955,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="86" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="113">
         <v>84</v>
       </c>
@@ -11941,7 +11977,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="87" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="113">
         <v>85</v>
       </c>
@@ -11963,7 +11999,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="88" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="113">
         <v>86</v>
       </c>
@@ -11985,7 +12021,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="89" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="113">
         <v>87</v>
       </c>
@@ -12007,7 +12043,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="90" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="113">
         <v>88</v>
       </c>
@@ -12029,7 +12065,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="91" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="113">
         <v>89</v>
       </c>
@@ -12051,7 +12087,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="92" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="113">
         <v>90</v>
       </c>
@@ -12073,7 +12109,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="93" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="113">
         <v>91</v>
       </c>
@@ -12097,7 +12133,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="113">
         <v>92</v>
       </c>
@@ -12119,7 +12155,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="95" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="113">
         <v>93</v>
       </c>
@@ -12143,7 +12179,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="96" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="113">
         <v>94</v>
       </c>
@@ -12169,7 +12205,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="97" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="113">
         <v>95</v>
       </c>
@@ -12196,96 +12232,96 @@
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J96" r:id="rId2"/>
-    <hyperlink ref="J12" r:id="rId3"/>
-    <hyperlink ref="J23" r:id="rId4"/>
-    <hyperlink ref="J48" r:id="rId5"/>
-    <hyperlink ref="J79" r:id="rId6"/>
-    <hyperlink ref="J24" r:id="rId7"/>
-    <hyperlink ref="J93" r:id="rId8"/>
-    <hyperlink ref="J71" r:id="rId9"/>
-    <hyperlink ref="J78" r:id="rId10"/>
-    <hyperlink ref="J66" r:id="rId11"/>
-    <hyperlink ref="J5" r:id="rId12"/>
-    <hyperlink ref="J11" r:id="rId13"/>
-    <hyperlink ref="J20" r:id="rId14"/>
-    <hyperlink ref="J75" r:id="rId15"/>
-    <hyperlink ref="J72" r:id="rId16"/>
-    <hyperlink ref="J21" r:id="rId17" display="chamutradingtea@yahoo.com"/>
-    <hyperlink ref="J14" r:id="rId18" display="apttea@yahoo.com"/>
-    <hyperlink ref="J6" r:id="rId19" display="atc@africaonline.co.ke"/>
-    <hyperlink ref="J50" r:id="rId20"/>
-    <hyperlink ref="J18" r:id="rId21"/>
-    <hyperlink ref="J43" r:id="rId22"/>
-    <hyperlink ref="J52" r:id="rId23" display="info@kenyanut.com"/>
-    <hyperlink ref="J65" r:id="rId24"/>
-    <hyperlink ref="J53" r:id="rId25"/>
-    <hyperlink ref="J56" r:id="rId26"/>
-    <hyperlink ref="J57" r:id="rId27"/>
-    <hyperlink ref="J55" r:id="rId28"/>
-    <hyperlink ref="J58" r:id="rId29"/>
-    <hyperlink ref="J7" r:id="rId30"/>
-    <hyperlink ref="J40" r:id="rId31"/>
-    <hyperlink ref="J92" r:id="rId32"/>
-    <hyperlink ref="J97" r:id="rId33"/>
-    <hyperlink ref="J82" r:id="rId34"/>
-    <hyperlink ref="J83" r:id="rId35"/>
-    <hyperlink ref="J10" r:id="rId36" display="mailto:ALKHALIFAENTERPRISES@gmail.com"/>
-    <hyperlink ref="J8" r:id="rId37"/>
-    <hyperlink ref="J19" r:id="rId38"/>
-    <hyperlink ref="J13" r:id="rId39" display="mailto:alitihadltd@yahoo.com"/>
-    <hyperlink ref="J80" r:id="rId40"/>
-    <hyperlink ref="J62" r:id="rId41"/>
-    <hyperlink ref="J16" r:id="rId42"/>
-    <hyperlink ref="J90" r:id="rId43"/>
-    <hyperlink ref="J26" r:id="rId44"/>
-    <hyperlink ref="J17" r:id="rId45"/>
-    <hyperlink ref="J95" r:id="rId46"/>
-    <hyperlink ref="J85" r:id="rId47"/>
-    <hyperlink ref="J29" r:id="rId48"/>
-    <hyperlink ref="J49" r:id="rId49"/>
-    <hyperlink ref="J9" r:id="rId50"/>
-    <hyperlink ref="J73" r:id="rId51"/>
-    <hyperlink ref="J76" r:id="rId52"/>
-    <hyperlink ref="J25" r:id="rId53"/>
-    <hyperlink ref="J31" r:id="rId54"/>
-    <hyperlink ref="J45" r:id="rId55"/>
-    <hyperlink ref="J64" r:id="rId56"/>
-    <hyperlink ref="J69" r:id="rId57"/>
-    <hyperlink ref="J94" r:id="rId58"/>
-    <hyperlink ref="J86" r:id="rId59"/>
-    <hyperlink ref="J87" r:id="rId60"/>
-    <hyperlink ref="J84" r:id="rId61"/>
-    <hyperlink ref="J77" r:id="rId62"/>
-    <hyperlink ref="J91" r:id="rId63"/>
-    <hyperlink ref="J46" r:id="rId64"/>
-    <hyperlink ref="J39" r:id="rId65"/>
-    <hyperlink ref="J42" r:id="rId66"/>
-    <hyperlink ref="J88" r:id="rId67"/>
-    <hyperlink ref="J27" r:id="rId68" display="nobahar@delstatea.com"/>
-    <hyperlink ref="J61" r:id="rId69"/>
-    <hyperlink ref="J47" r:id="rId70"/>
-    <hyperlink ref="J28" r:id="rId71"/>
-    <hyperlink ref="J32" r:id="rId72"/>
-    <hyperlink ref="J74" r:id="rId73"/>
-    <hyperlink ref="J38" r:id="rId74"/>
-    <hyperlink ref="J44" r:id="rId75"/>
-    <hyperlink ref="J68" r:id="rId76"/>
-    <hyperlink ref="J22" r:id="rId77" display="mailto:info@classictea.co.ke"/>
-    <hyperlink ref="J54" r:id="rId78"/>
-    <hyperlink ref="J60" r:id="rId79"/>
-    <hyperlink ref="J67" r:id="rId80"/>
-    <hyperlink ref="J41" r:id="rId81"/>
-    <hyperlink ref="J30" r:id="rId82"/>
-    <hyperlink ref="J89" r:id="rId83"/>
-    <hyperlink ref="J4" r:id="rId84"/>
-    <hyperlink ref="J36" r:id="rId85"/>
-    <hyperlink ref="J37" r:id="rId86"/>
-    <hyperlink ref="J33" r:id="rId87"/>
-    <hyperlink ref="J15" r:id="rId88"/>
-    <hyperlink ref="J34" r:id="rId89"/>
-    <hyperlink ref="J35" r:id="rId90"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J96" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="J48" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="J79" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="J24" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="J93" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="J71" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="J78" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="J66" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="J5" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="J11" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="J20" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="J75" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="J72" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="J21" r:id="rId17" display="chamutradingtea@yahoo.com" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="J14" r:id="rId18" display="apttea@yahoo.com" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="J6" r:id="rId19" display="atc@africaonline.co.ke" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="J50" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="J18" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="J52" r:id="rId23" display="info@kenyanut.com" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="J65" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="J56" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="J57" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="J55" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="J58" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="J7" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="J40" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="J92" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="J97" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="J82" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="J83" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="J10" r:id="rId36" display="mailto:ALKHALIFAENTERPRISES@gmail.com" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="J8" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="J19" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="J13" r:id="rId39" display="mailto:alitihadltd@yahoo.com" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="J80" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="J62" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="J16" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="J90" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="J26" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="J17" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="J95" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="J85" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="J29" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="J49" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="J9" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="J73" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="J76" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="J25" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="J31" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="J45" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="J64" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="J69" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="J94" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="J86" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="J87" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="J84" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="J77" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="J91" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="J46" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="J39" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="J42" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="J88" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="J27" r:id="rId68" display="nobahar@delstatea.com" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="J61" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="J47" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="J28" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="J32" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="J74" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="J38" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="J44" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="J68" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="J22" r:id="rId77" display="mailto:info@classictea.co.ke" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="J54" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="J60" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="J67" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="J41" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="J30" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="J89" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="J4" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="J36" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="J37" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="J33" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="J15" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="J34" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="J35" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="296" orientation="portrait" r:id="rId91"/>
@@ -12293,23 +12329,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D3:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="148" t="s">
         <v>1327</v>
       </c>
@@ -12321,7 +12357,7 @@
       </c>
       <c r="K3" s="151"/>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" s="149" t="s">
         <v>1328</v>
       </c>
@@ -12331,7 +12367,7 @@
       <c r="J4" s="149"/>
       <c r="K4" s="149"/>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" s="142"/>
       <c r="E5" s="142" t="s">
         <v>1343</v>
@@ -12347,7 +12383,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="144">
         <v>1</v>
       </c>
@@ -12367,7 +12403,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="144">
         <v>2</v>
       </c>
@@ -12387,7 +12423,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="144">
         <v>3</v>
       </c>
@@ -12407,7 +12443,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="144">
         <v>4</v>
       </c>
@@ -12427,7 +12463,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="144"/>
       <c r="E10" s="144"/>
       <c r="F10" s="145"/>
@@ -12439,7 +12475,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="149" t="s">
         <v>1333</v>
       </c>
@@ -12453,7 +12489,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="144">
         <v>1</v>
       </c>
@@ -12473,7 +12509,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="144">
         <v>2</v>
       </c>
@@ -12493,7 +12529,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="144">
         <v>3</v>
       </c>
@@ -12513,7 +12549,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="144">
         <v>4</v>
       </c>
@@ -12533,7 +12569,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="144">
         <v>5</v>
       </c>
@@ -12553,7 +12589,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="144">
         <v>6</v>
       </c>
@@ -12573,7 +12609,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="144">
         <v>7</v>
       </c>
@@ -12593,7 +12629,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="144">
         <v>8</v>
       </c>
@@ -12613,7 +12649,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="144">
         <v>9</v>
       </c>
@@ -12633,7 +12669,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="145"/>
       <c r="E21" s="145"/>
       <c r="F21" s="145"/>
@@ -12645,7 +12681,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J22" s="147">
         <v>17</v>
       </c>
@@ -12653,7 +12689,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J23" s="147">
         <v>18</v>
       </c>
@@ -12661,7 +12697,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J24" s="147">
         <v>19</v>
       </c>
@@ -12669,7 +12705,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" s="147">
         <v>20</v>
       </c>

--- a/main/catalogue/DATA SETUP.xlsx
+++ b/main/catalogue/DATA SETUP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\catalogue_app\main\catalogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\catalogue\main\catalogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2D7BE-F12E-4AE7-B858-565AA5100E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="876" yWindow="0" windowWidth="15372" windowHeight="7872" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WAREHOUSES" sheetId="7" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="BUYERS" sheetId="3" r:id="rId4"/>
     <sheet name="TEA GRADES" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1451">
   <si>
     <t>Eastern Produce Kenya Ltd</t>
   </si>
@@ -4233,12 +4232,243 @@
   <si>
     <t>020 2047941/2333873/ 0722 993038/0775243324</t>
   </si>
+  <si>
+    <t>Kisyet Tea Limited</t>
+  </si>
+  <si>
+    <t>KITL</t>
+  </si>
+  <si>
+    <t>Box 1164-20200 Kericho</t>
+  </si>
+  <si>
+    <t>fbett2312@gmail.com/fbett2312@outlook.com</t>
+  </si>
+  <si>
+    <t>0721700797</t>
+  </si>
+  <si>
+    <t>Rugabano Tea Company Private Ltd</t>
+  </si>
+  <si>
+    <t>RTCP</t>
+  </si>
+  <si>
+    <t>P.O Box 206, Gisenyi Rwanda</t>
+  </si>
+  <si>
+    <t>250787971247</t>
+  </si>
+  <si>
+    <t>ceo@silverback.com</t>
+  </si>
+  <si>
+    <t>Black Gold Africa Traders Limited</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>42964-80100, Mombasa</t>
+  </si>
+  <si>
+    <t>0721273100</t>
+  </si>
+  <si>
+    <t>blackgoldtrd@gmail.com</t>
+  </si>
+  <si>
+    <t>Capital Tea Traders Limited</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>97187-80100, Mombasa</t>
+  </si>
+  <si>
+    <t>0726702827</t>
+  </si>
+  <si>
+    <t>tgithaiga@cttl.co.ke</t>
+  </si>
+  <si>
+    <t>Crove Unique Ltd</t>
+  </si>
+  <si>
+    <t>CUL</t>
+  </si>
+  <si>
+    <t>79373-00200, Nairobi</t>
+  </si>
+  <si>
+    <t>0727553601/0722719890</t>
+  </si>
+  <si>
+    <t>info@croveuniqueltd.com</t>
+  </si>
+  <si>
+    <t>Golden Cup Kenya Limited</t>
+  </si>
+  <si>
+    <t>GCK</t>
+  </si>
+  <si>
+    <t>0722512248</t>
+  </si>
+  <si>
+    <t>goldencupkenya@gmail.com</t>
+  </si>
+  <si>
+    <t>Habtam Limited</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>62993-00200, Nairobi</t>
+  </si>
+  <si>
+    <t>0722670995</t>
+  </si>
+  <si>
+    <t>amengesha251@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaribu Tea and Coffee Export Limited</t>
+  </si>
+  <si>
+    <t>JTC</t>
+  </si>
+  <si>
+    <t>Box 85762-80100 Mombasa</t>
+  </si>
+  <si>
+    <t>0722268561/0208000691</t>
+  </si>
+  <si>
+    <t>info@jaributeaandcoffee.co.ke</t>
+  </si>
+  <si>
+    <t>Majani Bora Exporters Ltd</t>
+  </si>
+  <si>
+    <t>MEL</t>
+  </si>
+  <si>
+    <t>Box 205-00610, Nairobi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0718444141</t>
+  </si>
+  <si>
+    <t>majanibora2010@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mizaj Africa Limited</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>Box 99977-80107</t>
+  </si>
+  <si>
+    <t>0741319982</t>
+  </si>
+  <si>
+    <t>mizajafricaltd@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanica Limited</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>Box 63345-00619 Nairobi</t>
+  </si>
+  <si>
+    <t>0727543716</t>
+  </si>
+  <si>
+    <t>info@sanicasystems.com</t>
+  </si>
+  <si>
+    <t>Sohana Merchandise Co. Ltd</t>
+  </si>
+  <si>
+    <t>SML</t>
+  </si>
+  <si>
+    <t>Box 71261-00610, Nairobi</t>
+  </si>
+  <si>
+    <t>haarciid22@gmail.com</t>
+  </si>
+  <si>
+    <t>Starteam International Ltd</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Box 23558-00100, Nairobi</t>
+  </si>
+  <si>
+    <t>starteamltd@gmail.com/mailinfo@starteaminternational.com</t>
+  </si>
+  <si>
+    <t>United (E.A) Warehouses Ltd</t>
+  </si>
+  <si>
+    <t>Box 99350 - 80107, Mombsa</t>
+  </si>
+  <si>
+    <t>Wilpalm Tea Ltd</t>
+  </si>
+  <si>
+    <t>WTL</t>
+  </si>
+  <si>
+    <t>Box 87830-80100, Mombasa</t>
+  </si>
+  <si>
+    <t>0799162395</t>
+  </si>
+  <si>
+    <t>info@wilpalm.co.ke</t>
+  </si>
+  <si>
+    <t>Zeytun Commodities Limited</t>
+  </si>
+  <si>
+    <t>ZCL</t>
+  </si>
+  <si>
+    <t>Box 86665-80100 Mombasa</t>
+  </si>
+  <si>
+    <t>0722775358</t>
+  </si>
+  <si>
+    <t>zeytuncommoditiesltd@gmail.com</t>
+  </si>
+  <si>
+    <t>0721531933/0724531933</t>
+  </si>
+  <si>
+    <t>0721387891/0724531933</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4462,6 +4692,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4613,7 +4849,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5015,6 +5251,32 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5109,23 +5371,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5161,23 +5406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5353,26 +5581,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J95"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="64" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="61.88671875" customWidth="1"/>
     <col min="8" max="8" width="67" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="148" t="s">
         <v>713</v>
       </c>
@@ -5384,7 +5612,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -5407,7 +5635,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="56">
         <v>1</v>
       </c>
@@ -5431,7 +5659,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>392</v>
@@ -5447,7 +5675,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="3:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>394</v>
@@ -5463,7 +5691,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
         <v>392</v>
@@ -5475,7 +5703,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -5499,7 +5727,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
         <v>398</v>
@@ -5513,7 +5741,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>400</v>
@@ -5527,7 +5755,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -5549,7 +5777,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
         <v>1010</v>
@@ -5563,7 +5791,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>4</v>
       </c>
@@ -5589,7 +5817,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>714</v>
@@ -5603,7 +5831,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>404</v>
@@ -5617,7 +5845,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>406</v>
@@ -5631,7 +5859,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
         <v>408</v>
@@ -5645,7 +5873,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>410</v>
@@ -5659,7 +5887,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
         <v>412</v>
@@ -5673,7 +5901,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
         <v>414</v>
@@ -5687,7 +5915,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>416</v>
@@ -5701,7 +5929,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -5725,7 +5953,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
         <v>419</v>
@@ -5739,7 +5967,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
         <v>421</v>
@@ -5753,7 +5981,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
         <v>423</v>
@@ -5767,7 +5995,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
         <v>425</v>
@@ -5781,7 +6009,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
         <v>462</v>
@@ -5795,7 +6023,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
         <v>686</v>
@@ -5809,7 +6037,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
         <v>427</v>
@@ -5823,7 +6051,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
         <v>715</v>
@@ -5837,7 +6065,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="66"/>
       <c r="D30" s="67" t="s">
         <v>727</v>
@@ -5851,7 +6079,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="66"/>
       <c r="D31" s="71" t="s">
         <v>729</v>
@@ -5865,7 +6093,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="66"/>
       <c r="D32" s="71" t="s">
         <v>922</v>
@@ -5879,7 +6107,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="66"/>
       <c r="D33" s="71" t="s">
         <v>929</v>
@@ -5893,7 +6121,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="66">
         <v>6</v>
       </c>
@@ -5917,7 +6145,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="66"/>
       <c r="D35" s="71" t="s">
         <v>967</v>
@@ -5931,7 +6159,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="66">
         <v>7</v>
       </c>
@@ -5957,7 +6185,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
         <v>8</v>
       </c>
@@ -5981,7 +6209,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
         <v>490</v>
@@ -5995,7 +6223,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
         <v>491</v>
@@ -6009,7 +6237,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
         <v>492</v>
@@ -6023,7 +6251,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
         <v>493</v>
@@ -6037,7 +6265,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
         <v>494</v>
@@ -6051,7 +6279,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
         <v>495</v>
@@ -6065,7 +6293,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -6079,7 +6307,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
         <v>497</v>
@@ -6093,7 +6321,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>9</v>
       </c>
@@ -6117,7 +6345,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
         <v>882</v>
@@ -6131,7 +6359,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
       <c r="D48" s="4" t="s">
         <v>931</v>
@@ -6145,7 +6373,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>10</v>
       </c>
@@ -6169,7 +6397,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
       <c r="D50" s="4" t="s">
         <v>434</v>
@@ -6183,7 +6411,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
         <v>436</v>
@@ -6197,7 +6425,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
       <c r="D52" s="4" t="s">
         <v>594</v>
@@ -6211,7 +6439,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="3:10" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="3"/>
       <c r="D53" s="72" t="s">
         <v>1016</v>
@@ -6225,7 +6453,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="3:10" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C54" s="3"/>
       <c r="D54" s="72" t="s">
         <v>734</v>
@@ -6239,7 +6467,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="74" t="s">
         <v>1017</v>
@@ -6253,7 +6481,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="23" t="s">
         <v>781</v>
@@ -6267,7 +6495,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="23" t="s">
         <v>925</v>
@@ -6281,7 +6509,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
       <c r="D58" s="75" t="s">
         <v>1019</v>
@@ -6295,7 +6523,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="75" t="s">
         <v>1296</v>
@@ -6309,7 +6537,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>11</v>
       </c>
@@ -6331,7 +6559,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="75" t="s">
         <v>1103</v>
@@ -6345,7 +6573,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>12</v>
       </c>
@@ -6367,7 +6595,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="75" t="s">
         <v>1133</v>
@@ -6381,7 +6609,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>13</v>
       </c>
@@ -6405,7 +6633,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
         <v>988</v>
@@ -6421,7 +6649,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
         <v>1293</v>
@@ -6437,7 +6665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="3">
         <v>14</v>
       </c>
@@ -6461,7 +6689,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
         <v>915</v>
@@ -6477,7 +6705,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="4" t="s">
         <v>916</v>
@@ -6493,7 +6721,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
         <v>918</v>
@@ -6509,7 +6737,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
         <v>947</v>
@@ -6525,7 +6753,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
         <v>1140</v>
@@ -6539,7 +6767,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
         <v>1145</v>
@@ -6553,7 +6781,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="3">
         <v>15</v>
       </c>
@@ -6579,7 +6807,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="9"/>
       <c r="D75" s="4" t="s">
         <v>1227</v>
@@ -6593,7 +6821,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
         <v>1228</v>
@@ -6607,7 +6835,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="3">
         <v>16</v>
       </c>
@@ -6631,7 +6859,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
       <c r="D78" s="4" t="s">
         <v>449</v>
@@ -6645,7 +6873,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
       <c r="D79" s="4" t="s">
         <v>451</v>
@@ -6659,7 +6887,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="3">
         <v>17</v>
       </c>
@@ -6685,7 +6913,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
         <v>456</v>
@@ -6699,7 +6927,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
       <c r="D82" s="4" t="s">
         <v>458</v>
@@ -6713,7 +6941,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="84" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C84" s="148" t="s">
         <v>1326</v>
       </c>
@@ -6725,7 +6953,7 @@
       <c r="I84" s="148"/>
       <c r="J84" s="148"/>
     </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D85" s="112" t="s">
         <v>693</v>
       </c>
@@ -6748,7 +6976,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="81"/>
       <c r="C86" s="3">
         <v>18</v>
@@ -6773,7 +7001,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="3">
         <v>19</v>
@@ -6798,7 +7026,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="3">
         <v>20</v>
@@ -6825,7 +7053,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="3">
         <v>21</v>
@@ -6848,7 +7076,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="3">
         <v>22</v>
@@ -6873,7 +7101,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="3">
         <v>23</v>
@@ -6896,7 +7124,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="3">
         <v>24</v>
@@ -6923,7 +7151,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="3">
         <v>25</v>
@@ -6948,7 +7176,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="3">
         <v>26</v>
@@ -6975,7 +7203,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="3">
         <v>27</v>
@@ -7006,56 +7234,56 @@
     <mergeCell ref="C84:J84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J74" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J80" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J64" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J65" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J67" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J62" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J66" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J87" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J90" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J91" r:id="rId21" display="mailto:ALKHALIFAENTERPRISES@gmail.com" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J94" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J12" r:id="rId1"/>
+    <hyperlink ref="J49" r:id="rId2"/>
+    <hyperlink ref="J74" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J77" r:id="rId5"/>
+    <hyperlink ref="J80" r:id="rId6"/>
+    <hyperlink ref="J64" r:id="rId7"/>
+    <hyperlink ref="J65" r:id="rId8"/>
+    <hyperlink ref="J21" r:id="rId9"/>
+    <hyperlink ref="J67" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
+    <hyperlink ref="J37" r:id="rId12"/>
+    <hyperlink ref="J36" r:id="rId13"/>
+    <hyperlink ref="J46" r:id="rId14"/>
+    <hyperlink ref="J34" r:id="rId15"/>
+    <hyperlink ref="J10" r:id="rId16"/>
+    <hyperlink ref="J62" r:id="rId17"/>
+    <hyperlink ref="J66" r:id="rId18"/>
+    <hyperlink ref="J87" r:id="rId19"/>
+    <hyperlink ref="J90" r:id="rId20"/>
+    <hyperlink ref="J91" r:id="rId21" display="mailto:ALKHALIFAENTERPRISES@gmail.com"/>
+    <hyperlink ref="J94" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="66" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="8" width="71.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="71.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="148" t="s">
         <v>1325</v>
       </c>
@@ -7067,7 +7295,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -7090,7 +7318,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="56">
         <v>1</v>
       </c>
@@ -7116,7 +7344,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="56">
         <v>2</v>
       </c>
@@ -7138,7 +7366,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="56">
         <v>3</v>
       </c>
@@ -7164,7 +7392,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="56">
         <v>4</v>
       </c>
@@ -7186,7 +7414,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="56">
         <v>5</v>
       </c>
@@ -7212,7 +7440,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="56">
         <v>6</v>
       </c>
@@ -7236,7 +7464,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="56">
         <v>7</v>
       </c>
@@ -7260,7 +7488,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="56">
         <v>8</v>
       </c>
@@ -7286,7 +7514,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="56">
         <v>9</v>
       </c>
@@ -7310,7 +7538,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="56">
         <v>10</v>
       </c>
@@ -7336,7 +7564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="56">
         <v>11</v>
       </c>
@@ -7358,7 +7586,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="56">
         <v>12</v>
       </c>
@@ -7382,7 +7610,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="56">
         <v>13</v>
       </c>
@@ -7406,7 +7634,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="56">
         <v>14</v>
       </c>
@@ -7437,44 +7665,44 @@
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="J12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="J10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="J15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J14" r:id="rId1"/>
+    <hyperlink ref="J16" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId3"/>
+    <hyperlink ref="J12" r:id="rId4"/>
+    <hyperlink ref="J3" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J6" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C2:K96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="H79" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="84" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" customWidth="1"/>
     <col min="11" max="11" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
@@ -7499,7 +7727,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
         <v>825</v>
       </c>
@@ -7512,7 +7740,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="97"/>
       <c r="D4" s="98">
         <v>1</v>
@@ -7535,9 +7763,10 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="79"/>
       <c r="D5" s="6">
+        <f>D4+1</f>
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -7558,9 +7787,10 @@
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="79"/>
       <c r="D6" s="6">
+        <f t="shared" ref="D6:D69" si="0">D5+1</f>
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -7581,9 +7811,10 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="79"/>
       <c r="D7" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -7604,9 +7835,10 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="21"/>
       <c r="D8" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -7627,9 +7859,10 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -7652,9 +7885,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="24"/>
       <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -7679,9 +7913,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="26"/>
       <c r="D11" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -7702,9 +7937,10 @@
         <v>815</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="24"/>
       <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -7725,9 +7961,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="24"/>
       <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -7748,9 +7985,10 @@
         <v>936</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="49"/>
       <c r="D14" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E14" s="28" t="s">
@@ -7771,9 +8009,10 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="24"/>
       <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -7798,9 +8037,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="24"/>
       <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -7823,9 +8063,10 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="24"/>
       <c r="D17" s="6">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -7850,9 +8091,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24"/>
       <c r="D18" s="6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -7877,9 +8119,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="34"/>
       <c r="D19" s="6">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -7902,9 +8145,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
       <c r="D20" s="6">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -7929,9 +8173,10 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="24"/>
       <c r="D21" s="6">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -7954,9 +8199,10 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="24"/>
       <c r="D22" s="6">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -7979,9 +8225,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="26"/>
       <c r="D23" s="6">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -8002,9 +8249,10 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="24"/>
       <c r="D24" s="6">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -8027,9 +8275,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="49"/>
       <c r="D25" s="6">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -8050,9 +8299,10 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="26"/>
       <c r="D26" s="6">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -8075,9 +8325,10 @@
         <v>786</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
       <c r="D27" s="6">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -8100,9 +8351,10 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24"/>
       <c r="D28" s="6">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -8123,9 +8375,10 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="24"/>
       <c r="D29" s="6">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -8150,9 +8403,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24"/>
       <c r="D30" s="6">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -8175,9 +8429,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="24"/>
       <c r="D31" s="6">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -8198,9 +8453,10 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="24"/>
       <c r="D32" s="6">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -8221,9 +8477,10 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="24"/>
       <c r="D33" s="6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -8246,9 +8503,10 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="26"/>
       <c r="D34" s="6">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -8269,9 +8527,10 @@
         <v>986</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="26"/>
       <c r="D35" s="6">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -8292,9 +8551,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="24"/>
       <c r="D36" s="6">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -8319,9 +8579,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="24"/>
       <c r="D37" s="6">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -8344,9 +8605,10 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="49"/>
       <c r="D38" s="6">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -8367,9 +8629,10 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="24"/>
       <c r="D39" s="6">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -8394,9 +8657,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="24"/>
       <c r="D40" s="6">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -8421,9 +8685,10 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="24"/>
       <c r="D41" s="6">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -8448,9 +8713,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="24"/>
       <c r="D42" s="6">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -8475,9 +8741,10 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="26"/>
       <c r="D43" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -8500,9 +8767,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="104"/>
       <c r="D44" s="98">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="E44" s="98" t="s">
@@ -8523,9 +8791,10 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="104"/>
       <c r="D45" s="98">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E45" s="98" t="s">
@@ -8546,9 +8815,10 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="104"/>
       <c r="D46" s="98">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E46" s="98" t="s">
@@ -8569,9 +8839,10 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="24"/>
       <c r="D47" s="6">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -8596,9 +8867,10 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="43"/>
       <c r="D48" s="6">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -8623,1333 +8895,1430 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+    <row r="49" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="43"/>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="27" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J49" s="89"/>
+      <c r="K49" s="37" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="6">
-        <v>46</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="83" t="s">
+      <c r="F50" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="25" t="s">
+      <c r="H50" s="6"/>
+      <c r="I50" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J49" s="61">
+      <c r="J50" s="61">
         <v>342283</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K50" s="8" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="44"/>
-      <c r="D50" s="6">
-        <v>47</v>
-      </c>
-      <c r="E50" s="4" t="s">
+    <row r="51" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="44"/>
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F51" s="83" t="s">
         <v>771</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="27" t="s">
+      <c r="H51" s="6"/>
+      <c r="I51" s="27" t="s">
         <v>773</v>
       </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="63" t="s">
+      <c r="J51" s="61"/>
+      <c r="K51" s="63" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="46"/>
-      <c r="D51" s="6">
-        <v>48</v>
-      </c>
-      <c r="E51" s="6" t="s">
+    <row r="52" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="46"/>
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="F51" s="83" t="s">
+      <c r="F52" s="83" t="s">
         <v>957</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I52" s="27" t="s">
         <v>959</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="8" t="s">
+      <c r="J52" s="61"/>
+      <c r="K52" s="8" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="26"/>
-      <c r="D52" s="6">
-        <v>49</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="26"/>
       <c r="D53" s="6">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="26"/>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="F53" s="90" t="s">
+      <c r="F54" s="90" t="s">
         <v>1079</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="25" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J53" s="61"/>
-      <c r="K53" s="91" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="24"/>
-      <c r="D54" s="6">
-        <v>51</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+      <c r="J54" s="61"/>
+      <c r="K54" s="91" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="24"/>
       <c r="D55" s="6">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J55" s="61" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="24"/>
       <c r="D56" s="6">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>706</v>
+        <v>78</v>
       </c>
       <c r="F56" s="83" t="s">
-        <v>707</v>
+        <v>79</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>708</v>
+        <v>563</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="25">
-        <v>772701013</v>
-      </c>
-      <c r="J56" s="61"/>
+      <c r="I56" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="K56" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="24"/>
       <c r="D57" s="6">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>83</v>
+        <v>706</v>
       </c>
       <c r="F57" s="83" t="s">
-        <v>84</v>
+        <v>707</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>86</v>
-      </c>
+      <c r="I57" s="25">
+        <v>772701013</v>
+      </c>
+      <c r="J57" s="61"/>
       <c r="K57" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="24"/>
       <c r="D58" s="6">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="J58" s="61"/>
+        <v>85</v>
+      </c>
+      <c r="J58" s="61" t="s">
+        <v>86</v>
+      </c>
       <c r="K58" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="24"/>
       <c r="D59" s="6">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>608</v>
+        <v>88</v>
       </c>
       <c r="F59" s="83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="47" t="s">
-        <v>778</v>
-      </c>
-      <c r="J59" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="K59" s="63" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="J59" s="61"/>
+      <c r="K59" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="24"/>
       <c r="D60" s="6">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>93</v>
+        <v>608</v>
       </c>
       <c r="F60" s="83" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="I60" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="J60" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="47" t="s">
+        <v>778</v>
+      </c>
+      <c r="J60" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" s="63" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="24"/>
       <c r="D61" s="6">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>464</v>
+        <v>93</v>
       </c>
       <c r="F61" s="83" t="s">
-        <v>465</v>
+        <v>94</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>833</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="J61" s="61"/>
-      <c r="K61" s="63" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="J61" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="24"/>
       <c r="D62" s="6">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="F62" s="83" t="s">
-        <v>98</v>
+        <v>465</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="H62" s="6"/>
+        <v>565</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>833</v>
+      </c>
       <c r="I62" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="J62" s="92" t="s">
-        <v>689</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="J62" s="61"/>
+      <c r="K62" s="63" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="24"/>
       <c r="D63" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F63" s="83" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="J63" s="92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="24"/>
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J64" s="61">
         <v>483422090</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K64" s="8" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="48"/>
-      <c r="D64" s="6">
-        <v>61</v>
-      </c>
-      <c r="E64" s="4" t="s">
+    <row r="65" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="48"/>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="F64" s="83" t="s">
+      <c r="F65" s="83" t="s">
         <v>962</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I65" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="J64" s="61"/>
-      <c r="K64" s="37" t="s">
+      <c r="J65" s="61"/>
+      <c r="K65" s="37" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="24"/>
-      <c r="D65" s="6">
-        <v>62</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>623</v>
-      </c>
-      <c r="J65" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="24"/>
       <c r="D66" s="6">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F66" s="83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="H66" s="6"/>
+        <v>568</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>889</v>
+      </c>
       <c r="I66" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="J66" s="61"/>
-      <c r="K66" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="J66" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="24"/>
       <c r="D67" s="6">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="J67" s="61"/>
+      <c r="K67" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="24"/>
+      <c r="D68" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="83" t="s">
+      <c r="F68" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="I67" s="25" t="s">
+      <c r="I68" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J67" s="61" t="s">
+      <c r="J68" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="K67" s="37" t="s">
+      <c r="K68" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="18" t="s">
+    <row r="69" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="6">
-        <v>65</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D69" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="83" t="s">
+      <c r="F69" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="25" t="s">
+      <c r="H69" s="6"/>
+      <c r="I69" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="J68" s="61" t="s">
+      <c r="J69" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K69" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="49"/>
-      <c r="D69" s="6">
-        <v>66</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>843</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J69" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="49"/>
       <c r="D70" s="6">
+        <f t="shared" ref="D70:D98" si="1">D69+1</f>
         <v>67</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>995</v>
+        <v>118</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>996</v>
+        <v>119</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="H70" s="6"/>
+        <v>572</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>843</v>
+      </c>
       <c r="I70" s="25" t="s">
-        <v>998</v>
+        <v>120</v>
       </c>
       <c r="J70" s="61" t="s">
-        <v>999</v>
+        <v>121</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="49"/>
       <c r="D71" s="6">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F71" s="83" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="25" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J71" s="61">
-        <v>116622</v>
+        <v>998</v>
+      </c>
+      <c r="J71" s="61" t="s">
+        <v>999</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="49"/>
       <c r="D72" s="6">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="83" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="25" t="s">
-        <v>992</v>
-      </c>
-      <c r="J72" s="61" t="s">
-        <v>993</v>
+        <v>1003</v>
+      </c>
+      <c r="J72" s="61">
+        <v>116622</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="73" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="49"/>
       <c r="D73" s="6">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>123</v>
+        <v>989</v>
       </c>
       <c r="F73" s="83" t="s">
-        <v>124</v>
+        <v>990</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>666</v>
+        <v>991</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="25" t="s">
-        <v>125</v>
+        <v>992</v>
       </c>
       <c r="J73" s="61" t="s">
-        <v>126</v>
+        <v>993</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="49"/>
       <c r="D74" s="6">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>573</v>
+        <v>666</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J74" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+      <c r="D75" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J74" s="61" t="s">
+      <c r="J75" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K75" s="8" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="18" t="s">
+    <row r="76" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="6">
-        <v>72</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="D76" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="F75" s="83" t="s">
+      <c r="F76" s="83" t="s">
         <v>1217</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="80" t="s">
+      <c r="H76" s="6"/>
+      <c r="I76" s="80" t="s">
         <v>1219</v>
       </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="37" t="s">
+      <c r="J76" s="61"/>
+      <c r="K76" s="37" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-      <c r="D76" s="6">
-        <v>73</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F76" s="83" t="s">
-        <v>587</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>840</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>615</v>
-      </c>
-      <c r="J76" s="61"/>
-      <c r="K76" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="77" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="6">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="J77" s="61"/>
+      <c r="K77" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F77" s="83" t="s">
+      <c r="F78" s="83" t="s">
         <v>472</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H78" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="I77" s="51">
+      <c r="I78" s="51">
         <v>250784575503</v>
       </c>
-      <c r="J77" s="61"/>
-      <c r="K77" s="37" t="s">
+      <c r="J78" s="61"/>
+      <c r="K78" s="37" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="24"/>
-      <c r="D78" s="6">
-        <v>75</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F78" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="I78" s="52" t="s">
-        <v>902</v>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="91" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="79" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="24"/>
       <c r="D79" s="6">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>133</v>
+        <v>1072</v>
       </c>
       <c r="F79" s="83" t="s">
-        <v>134</v>
+        <v>486</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>891</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="J79" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="I79" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="J79" s="61"/>
+      <c r="K79" s="91" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="24"/>
       <c r="D80" s="6">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="J80" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="24"/>
+      <c r="D81" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="F80" s="83" t="s">
+      <c r="F81" s="83" t="s">
         <v>517</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H81" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="I80" s="25" t="s">
+      <c r="I81" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="J80" s="88"/>
-      <c r="K80" s="8" t="s">
+      <c r="J81" s="88"/>
+      <c r="K81" s="8" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="6">
-        <v>78</v>
-      </c>
-      <c r="E81" s="40" t="s">
+    <row r="82" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="2"/>
+      <c r="D82" s="6">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E82" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="F81" s="93" t="s">
+      <c r="F82" s="93" t="s">
         <v>711</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="25" t="s">
+      <c r="H82" s="40"/>
+      <c r="I82" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="J81" s="94"/>
-      <c r="K81" s="8" t="s">
+      <c r="J82" s="94"/>
+      <c r="K82" s="8" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="82" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="24"/>
-      <c r="D82" s="6">
-        <v>79</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F82" s="83" t="s">
-        <v>742</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="J82" s="88" t="s">
-        <v>741</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="83" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="24"/>
       <c r="D83" s="6">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>629</v>
+        <v>1073</v>
       </c>
       <c r="F83" s="83" t="s">
-        <v>135</v>
+        <v>742</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>575</v>
+        <v>740</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="25" t="s">
-        <v>630</v>
-      </c>
-      <c r="J83" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="K83" s="37" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="J83" s="88" t="s">
+        <v>741</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="24"/>
       <c r="D84" s="6">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>1046</v>
+        <v>629</v>
       </c>
       <c r="F84" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>845</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="H84" s="6"/>
       <c r="I84" s="25" t="s">
-        <v>138</v>
+        <v>630</v>
       </c>
       <c r="J84" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K84" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="24"/>
       <c r="D85" s="6">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>702</v>
+        <v>1046</v>
       </c>
       <c r="F85" s="83" t="s">
-        <v>710</v>
+        <v>137</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="H85" s="6"/>
+        <v>576</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>845</v>
+      </c>
       <c r="I85" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="J85" s="61"/>
-      <c r="K85" s="8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="86" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="K85" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="24"/>
       <c r="D86" s="6">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1229</v>
+        <v>702</v>
       </c>
       <c r="F86" s="83" t="s">
-        <v>141</v>
+        <v>710</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>1230</v>
+        <v>703</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J86" s="61"/>
+      <c r="K86" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="24"/>
+      <c r="D87" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F87" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="J86" s="61" t="s">
+      <c r="J87" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K87" s="8" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="87" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="6">
-        <v>84</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="I87" s="25" t="s">
-        <v>647</v>
-      </c>
-      <c r="J87" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="88" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="24"/>
       <c r="D88" s="6">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>147</v>
+        <v>1379</v>
       </c>
       <c r="F88" s="83" t="s">
-        <v>148</v>
+        <v>1380</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>577</v>
+        <v>1381</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="J88" s="61" t="s">
-        <v>150</v>
-      </c>
+      <c r="I88" s="27" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J88" s="61"/>
       <c r="K88" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="53" t="s">
-        <v>152</v>
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="D89" s="6">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="H89" s="31"/>
-      <c r="I89" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="J89" s="36">
-        <v>225472</v>
+        <v>144</v>
+      </c>
+      <c r="F89" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="I89" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="J89" s="61" t="s">
+        <v>146</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="24"/>
       <c r="D90" s="6">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J90" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="H91" s="31"/>
+      <c r="I91" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="J91" s="36">
+        <v>225472</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="24"/>
+      <c r="D92" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="F90" s="83" t="s">
+      <c r="F92" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10" t="s">
+      <c r="H92" s="10"/>
+      <c r="I92" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="J90" s="61"/>
-      <c r="K90" s="91" t="s">
+      <c r="J92" s="61"/>
+      <c r="K92" s="91" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="91" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="18" t="s">
+    <row r="93" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="6">
-        <v>88</v>
-      </c>
-      <c r="E91" s="54" t="s">
+      <c r="D93" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E93" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="95" t="s">
+      <c r="F93" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G93" s="55" t="s">
         <v>580</v>
       </c>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55" t="s">
+      <c r="H93" s="55"/>
+      <c r="I93" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="J91" s="96" t="s">
+      <c r="J93" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K93" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="49"/>
-      <c r="D92" s="6">
-        <v>89</v>
-      </c>
-      <c r="E92" s="4" t="s">
+    <row r="94" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="49"/>
+      <c r="D94" s="6">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F92" s="83" t="s">
+      <c r="F94" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="J92" s="61">
-        <v>224657</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D93" s="6">
-        <v>90</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F93" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="H93" s="31"/>
-      <c r="I93" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="K93" s="37" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="6">
-        <v>91</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F94" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J94" s="61">
+        <v>224657</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="H95" s="31"/>
+      <c r="I95" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F96" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J94" s="61" t="s">
+      <c r="J96" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K96" s="8" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="95" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
-      <c r="D95" s="6">
-        <v>92</v>
-      </c>
-      <c r="E95" s="4" t="s">
+    <row r="97" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+      <c r="D97" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="F95" s="83" t="s">
+      <c r="F97" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H97" s="40" t="s">
         <v>841</v>
       </c>
-      <c r="I95" s="25" t="s">
+      <c r="I97" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="J95" s="61" t="s">
+      <c r="J97" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="K97" s="8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="3:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="18" t="s">
+    <row r="98" spans="3:11" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="D96" s="6">
-        <v>93</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D98" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="F96" s="83" t="s">
+      <c r="F98" s="83" t="s">
         <v>796</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="27" t="s">
+      <c r="H98" s="6"/>
+      <c r="I98" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="J96" s="27" t="s">
+      <c r="J98" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K98" s="8" t="s">
         <v>800</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K58" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="K69" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K62" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="K86" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="K68" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K67" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K54" r:id="rId7" display="kijuratea@yahoo.com" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K65" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K84" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="K57" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="K55" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="K60" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="K88" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="K91" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="K52" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="K73" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="K92" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="K48" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="K21" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="K12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="K30" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="K9" r:id="rId22" display="mailto:moses@thedlgroup.com" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="K49" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="K17" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="K16" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="K41" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="K10" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="K39" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="K18" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="K36" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="K33" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="K22" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="K29" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="K24" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="K27" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="K66" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="K94" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="K56" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="K61" r:id="rId39" display="mailto:nyambya@gmail.com" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="K82" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K59" r:id="rId41" display="mailto:gm.tea@madhvanitea.co.ug" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="K26" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="K50" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="K90" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="K96" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="K35" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="K4" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="K11" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="K76" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K77" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="K74" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="K78" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="K40" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="K85" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="K81" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="K13" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="K43" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="K51" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="K64" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="K34" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="K72" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="K70" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="K31" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="K89" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="K20" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="K53" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="K45" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="K28" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="K8" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="K38" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="K14" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="K23" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="K7" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="K25" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="K75" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="K32" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="K37" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="K6" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="K83" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="K46" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="K44" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="K59" r:id="rId1"/>
+    <hyperlink ref="K70" r:id="rId2"/>
+    <hyperlink ref="K63" r:id="rId3"/>
+    <hyperlink ref="K87" r:id="rId4"/>
+    <hyperlink ref="K69" r:id="rId5"/>
+    <hyperlink ref="K68" r:id="rId6"/>
+    <hyperlink ref="K55" r:id="rId7" display="kijuratea@yahoo.com"/>
+    <hyperlink ref="K66" r:id="rId8"/>
+    <hyperlink ref="K85" r:id="rId9"/>
+    <hyperlink ref="K58" r:id="rId10"/>
+    <hyperlink ref="K56" r:id="rId11"/>
+    <hyperlink ref="K61" r:id="rId12"/>
+    <hyperlink ref="K90" r:id="rId13"/>
+    <hyperlink ref="K93" r:id="rId14"/>
+    <hyperlink ref="K53" r:id="rId15"/>
+    <hyperlink ref="K74" r:id="rId16"/>
+    <hyperlink ref="K94" r:id="rId17"/>
+    <hyperlink ref="K48" r:id="rId18"/>
+    <hyperlink ref="K21" r:id="rId19"/>
+    <hyperlink ref="K12" r:id="rId20"/>
+    <hyperlink ref="K30" r:id="rId21"/>
+    <hyperlink ref="K9" r:id="rId22" display="mailto:moses@thedlgroup.com"/>
+    <hyperlink ref="K50" r:id="rId23"/>
+    <hyperlink ref="K17" r:id="rId24"/>
+    <hyperlink ref="K16" r:id="rId25"/>
+    <hyperlink ref="K41" r:id="rId26"/>
+    <hyperlink ref="K10" r:id="rId27"/>
+    <hyperlink ref="K39" r:id="rId28"/>
+    <hyperlink ref="K18" r:id="rId29"/>
+    <hyperlink ref="K36" r:id="rId30"/>
+    <hyperlink ref="K33" r:id="rId31"/>
+    <hyperlink ref="K22" r:id="rId32"/>
+    <hyperlink ref="K29" r:id="rId33"/>
+    <hyperlink ref="K24" r:id="rId34"/>
+    <hyperlink ref="K27" r:id="rId35"/>
+    <hyperlink ref="K67" r:id="rId36"/>
+    <hyperlink ref="K96" r:id="rId37"/>
+    <hyperlink ref="K57" r:id="rId38"/>
+    <hyperlink ref="K62" r:id="rId39" display="mailto:nyambya@gmail.com"/>
+    <hyperlink ref="K83" r:id="rId40"/>
+    <hyperlink ref="K60" r:id="rId41" display="mailto:gm.tea@madhvanitea.co.ug"/>
+    <hyperlink ref="K26" r:id="rId42"/>
+    <hyperlink ref="K51" r:id="rId43"/>
+    <hyperlink ref="K92" r:id="rId44"/>
+    <hyperlink ref="K98" r:id="rId45"/>
+    <hyperlink ref="K35" r:id="rId46"/>
+    <hyperlink ref="K4" r:id="rId47"/>
+    <hyperlink ref="K11" r:id="rId48"/>
+    <hyperlink ref="K77" r:id="rId49"/>
+    <hyperlink ref="K78" r:id="rId50"/>
+    <hyperlink ref="K75" r:id="rId51"/>
+    <hyperlink ref="K79" r:id="rId52"/>
+    <hyperlink ref="K40" r:id="rId53"/>
+    <hyperlink ref="K86" r:id="rId54"/>
+    <hyperlink ref="K82" r:id="rId55"/>
+    <hyperlink ref="K13" r:id="rId56"/>
+    <hyperlink ref="K43" r:id="rId57"/>
+    <hyperlink ref="K52" r:id="rId58"/>
+    <hyperlink ref="K65" r:id="rId59"/>
+    <hyperlink ref="K34" r:id="rId60"/>
+    <hyperlink ref="K73" r:id="rId61"/>
+    <hyperlink ref="K71" r:id="rId62"/>
+    <hyperlink ref="K31" r:id="rId63"/>
+    <hyperlink ref="K91" r:id="rId64"/>
+    <hyperlink ref="K20" r:id="rId65"/>
+    <hyperlink ref="K54" r:id="rId66"/>
+    <hyperlink ref="K45" r:id="rId67"/>
+    <hyperlink ref="K28" r:id="rId68"/>
+    <hyperlink ref="K8" r:id="rId69"/>
+    <hyperlink ref="K95" r:id="rId70"/>
+    <hyperlink ref="K38" r:id="rId71"/>
+    <hyperlink ref="K14" r:id="rId72"/>
+    <hyperlink ref="K23" r:id="rId73"/>
+    <hyperlink ref="K7" r:id="rId74"/>
+    <hyperlink ref="K25" r:id="rId75"/>
+    <hyperlink ref="K76" r:id="rId76"/>
+    <hyperlink ref="K32" r:id="rId77"/>
+    <hyperlink ref="K37" r:id="rId78"/>
+    <hyperlink ref="K6" r:id="rId79"/>
+    <hyperlink ref="K84" r:id="rId80"/>
+    <hyperlink ref="K46" r:id="rId81"/>
+    <hyperlink ref="K44" r:id="rId82"/>
+    <hyperlink ref="K49" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:J97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J174"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" customWidth="1"/>
-    <col min="9" max="9" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C1" s="148" t="s">
         <v>1324</v>
       </c>
@@ -9961,7 +10330,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="112" t="s">
         <v>693</v>
       </c>
@@ -9984,7 +10353,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="113">
         <v>1</v>
       </c>
@@ -10008,8 +10377,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="113">
+        <f>C3+1</f>
         <v>2</v>
       </c>
       <c r="D4" s="98" t="s">
@@ -10032,8 +10402,9 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="113">
+        <f t="shared" ref="C5:C68" si="0">C4+1</f>
         <v>3</v>
       </c>
       <c r="D5" s="98" t="s">
@@ -10056,9 +10427,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="113">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="98" t="s">
@@ -10081,8 +10453,9 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="113">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="98" t="s">
@@ -10103,8 +10476,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="113">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="98" t="s">
@@ -10127,8 +10501,9 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="113">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="98" t="s">
@@ -10149,8 +10524,9 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="113">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="98" t="s">
@@ -10171,8 +10547,9 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="113">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="98" t="s">
@@ -10197,8 +10574,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="113">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="98" t="s">
@@ -10223,8 +10601,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="113">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="98" t="s">
@@ -10247,8 +10626,9 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="113">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="98" t="s">
@@ -10271,8 +10651,9 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="115">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="98" t="s">
@@ -10293,8 +10674,9 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="113">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="98" t="s">
@@ -10317,8 +10699,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="113">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="98" t="s">
@@ -10343,8 +10726,9 @@
         <v>901</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="113">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="98" t="s">
@@ -10367,8 +10751,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="113">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="98" t="s">
@@ -10389,8 +10774,9 @@
         <v>739</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="113">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="98" t="s">
@@ -10413,8 +10799,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="113">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="98" t="s">
@@ -10439,8 +10826,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="113">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="98" t="s">
@@ -10461,8 +10849,9 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="113">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="98" t="s">
@@ -10485,8 +10874,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="113">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="98" t="s">
@@ -10509,8 +10899,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="113">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="98" t="s">
@@ -10531,8 +10922,9 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="113">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="98" t="s">
@@ -10555,8 +10947,9 @@
         <v>875</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="113">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" s="98" t="s">
@@ -10577,8 +10970,9 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="113">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D28" s="98" t="s">
@@ -10603,8 +10997,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="113">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="98" t="s">
@@ -10627,8 +11022,9 @@
         <v>978</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="113">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D30" s="98" t="s">
@@ -10651,8 +11047,9 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="113">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" s="98" t="s">
@@ -10675,8 +11072,9 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="113">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D32" s="98" t="s">
@@ -10697,8 +11095,9 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="113">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D33" s="98" t="s">
@@ -10721,8 +11120,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="115">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D34" s="98" t="s">
@@ -10743,8 +11143,9 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="115">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D35" s="98" t="s">
@@ -10765,8 +11166,9 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="113">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D36" s="98" t="s">
@@ -10791,8 +11193,9 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="113">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D37" s="98" t="s">
@@ -10817,8 +11220,9 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="113">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D38" s="98" t="s">
@@ -10839,8 +11243,9 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="113">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D39" s="127" t="s">
@@ -10863,8 +11268,9 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="113">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D40" s="98" t="s">
@@ -10885,8 +11291,9 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="113">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D41" s="98" t="s">
@@ -10907,8 +11314,9 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="113">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="98" t="s">
@@ -10929,8 +11337,9 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="113">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D43" s="98" t="s">
@@ -10953,8 +11362,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="113">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D44" s="98" t="s">
@@ -10975,8 +11385,9 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="113">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D45" s="98" t="s">
@@ -10999,8 +11410,9 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="113">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D46" s="98" t="s">
@@ -11023,8 +11435,9 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="113">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D47" s="98" t="s">
@@ -11045,8 +11458,9 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="113">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D48" s="98" t="s">
@@ -11069,8 +11483,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="113">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D49" s="98" t="s">
@@ -11093,8 +11508,9 @@
         <v>982</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="113">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D50" s="98" t="s">
@@ -11117,8 +11533,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="113">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D51" s="98" t="s">
@@ -11141,8 +11558,9 @@
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="113">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D52" s="98" t="s">
@@ -11163,8 +11581,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="113">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D53" s="98" t="s">
@@ -11187,8 +11606,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="113">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D54" s="98" t="s">
@@ -11209,8 +11629,9 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="113">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D55" s="98" t="s">
@@ -11233,8 +11654,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="113">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D56" s="98" t="s">
@@ -11259,8 +11681,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="113">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D57" s="98" t="s">
@@ -11283,8 +11706,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="113">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D58" s="98" t="s">
@@ -11309,8 +11733,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="113">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D59" s="98" t="s">
@@ -11335,8 +11760,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="113">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="D60" s="98" t="s">
@@ -11357,8 +11783,9 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="113">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="D61" s="98" t="s">
@@ -11379,8 +11806,9 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="113">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D62" s="98" t="s">
@@ -11401,8 +11829,9 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="113">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D63" s="98" t="s">
@@ -11425,8 +11854,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="113">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="D64" s="98" t="s">
@@ -11451,8 +11881,9 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="65" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="113">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="D65" s="98" t="s">
@@ -11477,8 +11908,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="113">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="D66" s="98" t="s">
@@ -11503,8 +11935,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="113">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D67" s="98" t="s">
@@ -11525,8 +11958,9 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="68" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="113">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D68" s="98" t="s">
@@ -11547,8 +11981,9 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="69" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="113">
+        <f t="shared" ref="C69:C111" si="1">C68+1</f>
         <v>67</v>
       </c>
       <c r="D69" s="98" t="s">
@@ -11569,8 +12004,9 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="70" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="113">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="D70" s="98" t="s">
@@ -11593,8 +12029,9 @@
         <v>895</v>
       </c>
     </row>
-    <row r="71" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="113">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="D71" s="98" t="s">
@@ -11619,8 +12056,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="113">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="D72" s="98" t="s">
@@ -11643,8 +12081,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="113">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="D73" s="98" t="s">
@@ -11667,8 +12106,9 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="74" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="113">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="D74" s="98" t="s">
@@ -11689,8 +12129,9 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="75" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="113">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="D75" s="98" t="s">
@@ -11713,8 +12154,9 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="76" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="113">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="D76" s="98" t="s">
@@ -11739,8 +12181,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="77" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="113">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="D77" s="98" t="s">
@@ -11761,8 +12204,9 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="78" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="113">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="D78" s="98" t="s">
@@ -11787,8 +12231,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="113">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="D79" s="98" t="s">
@@ -11811,8 +12256,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="113">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D80" s="98" t="s">
@@ -11835,8 +12281,9 @@
         <v>780</v>
       </c>
     </row>
-    <row r="81" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="113">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="D81" s="98" t="s">
@@ -11859,8 +12306,9 @@
         <v>671</v>
       </c>
     </row>
-    <row r="82" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="113">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D82" s="98" t="s">
@@ -11885,8 +12333,9 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="83" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="113">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="D83" s="98" t="s">
@@ -11909,8 +12358,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="84" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="113">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="D84" s="98" t="s">
@@ -11933,8 +12383,9 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="85" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="113">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="D85" s="98" t="s">
@@ -11955,8 +12406,9 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="86" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="113">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D86" s="98" t="s">
@@ -11977,8 +12429,9 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="87" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="113">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="D87" s="98" t="s">
@@ -11999,8 +12452,9 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="88" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="113">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="D88" s="98" t="s">
@@ -12021,8 +12475,9 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="89" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="113">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="D89" s="98" t="s">
@@ -12043,8 +12498,9 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="90" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="113">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="D90" s="98" t="s">
@@ -12065,8 +12521,9 @@
         <v>821</v>
       </c>
     </row>
-    <row r="91" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="113">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="D91" s="98" t="s">
@@ -12087,8 +12544,9 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="92" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="113">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D92" s="98" t="s">
@@ -12109,8 +12567,9 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="93" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="113">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D93" s="98" t="s">
@@ -12133,8 +12592,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="113">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="D94" s="98" t="s">
@@ -12155,8 +12615,9 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="95" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="113">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="D95" s="98" t="s">
@@ -12179,8 +12640,9 @@
         <v>910</v>
       </c>
     </row>
-    <row r="96" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="113">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="D96" s="98" t="s">
@@ -12205,8 +12667,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="97" spans="3:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="113">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="D97" s="98" t="s">
@@ -12227,125 +12690,538 @@
         <v>1285</v>
       </c>
     </row>
+    <row r="98" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="113">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D98" s="152" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E98" s="153" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F98" s="154" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G98" s="154"/>
+      <c r="H98" s="155" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I98" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J98" s="157" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="113">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D99" s="152" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E99" s="153" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F99" s="154" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G99" s="154"/>
+      <c r="H99" s="155" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I99" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" s="158" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="113">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D100" s="152" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E100" s="153" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F100" s="154" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G100" s="154"/>
+      <c r="H100" s="155" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I100" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J100" s="157" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="113">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D101" s="152" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E101" s="153" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="154" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G101" s="154"/>
+      <c r="H101" s="155" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I101" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J101" s="157" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="113">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D102" s="152" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E102" s="153" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F102" s="154" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G102" s="154"/>
+      <c r="H102" s="155" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I102" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="J102" s="158" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="113">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="D103" s="159" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E103" s="114" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F103" s="160" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G103" s="161"/>
+      <c r="H103" s="131" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I103" s="162"/>
+      <c r="J103" s="124" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="113">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="D104" s="159" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E104" s="114" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F104" s="160" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G104" s="163" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H104" s="131" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I104" s="97"/>
+      <c r="J104" s="123" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="113">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="D105" s="159" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E105" s="114" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F105" s="160" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G105" s="160"/>
+      <c r="H105" s="164" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I105" s="162"/>
+      <c r="J105" s="165" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="113">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D106" s="159" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E106" s="114" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F106" s="166" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G106" s="160"/>
+      <c r="H106" s="131" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I106" s="97"/>
+      <c r="J106" s="123" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="113">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D107" s="159" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E107" s="114" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F107" s="160" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G107" s="163"/>
+      <c r="H107" s="131" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I107" s="162"/>
+      <c r="J107" s="124" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="113">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="D108" s="159" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E108" s="114" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F108" s="160" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G108" s="163"/>
+      <c r="H108" s="131" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I108" s="162"/>
+      <c r="J108" s="123" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="113">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="D109" s="159" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E109" s="114" t="s">
+        <v>482</v>
+      </c>
+      <c r="F109" s="160" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G109" s="160"/>
+      <c r="H109" s="117" t="s">
+        <v>454</v>
+      </c>
+      <c r="I109" s="97">
+        <v>2230174</v>
+      </c>
+      <c r="J109" s="123" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="113">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D110" s="160" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E110" s="114" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F110" s="160" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G110" s="160"/>
+      <c r="H110" s="131" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I110" s="97"/>
+      <c r="J110" s="123" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="113">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="D111" s="167" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E111" s="114" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F111" s="160" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G111" s="160"/>
+      <c r="H111" s="131" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I111" s="97"/>
+      <c r="J111" s="124" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="30.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J96" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="J12" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="J48" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="J79" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="J24" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="J93" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="J71" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="J78" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="J66" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="J5" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="J11" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="J20" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="J75" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="J72" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="J21" r:id="rId17" display="chamutradingtea@yahoo.com" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="J14" r:id="rId18" display="apttea@yahoo.com" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="J6" r:id="rId19" display="atc@africaonline.co.ke" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="J50" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="J18" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="J43" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="J52" r:id="rId23" display="info@kenyanut.com" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="J65" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="J56" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="J57" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="J55" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="J58" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="J7" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="J40" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="J92" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="J97" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="J82" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="J83" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="J10" r:id="rId36" display="mailto:ALKHALIFAENTERPRISES@gmail.com" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="J8" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="J19" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="J13" r:id="rId39" display="mailto:alitihadltd@yahoo.com" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="J80" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="J62" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="J16" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="J90" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="J26" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="J17" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="J95" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="J85" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="J29" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="J49" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="J9" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="J73" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="J76" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="J25" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="J31" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="J45" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="J64" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="J69" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="J94" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="J86" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="J87" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="J84" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="J77" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="J91" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="J46" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="J39" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="J42" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="J88" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="J27" r:id="rId68" display="nobahar@delstatea.com" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="J61" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="J47" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="J28" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="J32" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="J74" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="J38" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="J44" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="J68" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="J22" r:id="rId77" display="mailto:info@classictea.co.ke" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="J54" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="J60" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="J67" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="J41" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="J30" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="J89" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="J4" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="J36" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="J37" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="J33" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="J15" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="J34" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="J35" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J96" r:id="rId2"/>
+    <hyperlink ref="J12" r:id="rId3"/>
+    <hyperlink ref="J23" r:id="rId4"/>
+    <hyperlink ref="J48" r:id="rId5"/>
+    <hyperlink ref="J79" r:id="rId6"/>
+    <hyperlink ref="J24" r:id="rId7"/>
+    <hyperlink ref="J93" r:id="rId8"/>
+    <hyperlink ref="J71" r:id="rId9"/>
+    <hyperlink ref="J78" r:id="rId10"/>
+    <hyperlink ref="J66" r:id="rId11"/>
+    <hyperlink ref="J5" r:id="rId12"/>
+    <hyperlink ref="J11" r:id="rId13"/>
+    <hyperlink ref="J20" r:id="rId14"/>
+    <hyperlink ref="J75" r:id="rId15"/>
+    <hyperlink ref="J72" r:id="rId16"/>
+    <hyperlink ref="J21" r:id="rId17" display="chamutradingtea@yahoo.com"/>
+    <hyperlink ref="J14" r:id="rId18" display="apttea@yahoo.com"/>
+    <hyperlink ref="J6" r:id="rId19" display="atc@africaonline.co.ke"/>
+    <hyperlink ref="J50" r:id="rId20"/>
+    <hyperlink ref="J18" r:id="rId21"/>
+    <hyperlink ref="J43" r:id="rId22"/>
+    <hyperlink ref="J52" r:id="rId23" display="info@kenyanut.com"/>
+    <hyperlink ref="J65" r:id="rId24"/>
+    <hyperlink ref="J53" r:id="rId25"/>
+    <hyperlink ref="J56" r:id="rId26"/>
+    <hyperlink ref="J57" r:id="rId27"/>
+    <hyperlink ref="J55" r:id="rId28"/>
+    <hyperlink ref="J58" r:id="rId29"/>
+    <hyperlink ref="J7" r:id="rId30"/>
+    <hyperlink ref="J40" r:id="rId31"/>
+    <hyperlink ref="J92" r:id="rId32"/>
+    <hyperlink ref="J97" r:id="rId33"/>
+    <hyperlink ref="J82" r:id="rId34"/>
+    <hyperlink ref="J83" r:id="rId35"/>
+    <hyperlink ref="J10" r:id="rId36" display="mailto:ALKHALIFAENTERPRISES@gmail.com"/>
+    <hyperlink ref="J8" r:id="rId37"/>
+    <hyperlink ref="J19" r:id="rId38"/>
+    <hyperlink ref="J13" r:id="rId39" display="mailto:alitihadltd@yahoo.com"/>
+    <hyperlink ref="J80" r:id="rId40"/>
+    <hyperlink ref="J62" r:id="rId41"/>
+    <hyperlink ref="J16" r:id="rId42"/>
+    <hyperlink ref="J90" r:id="rId43"/>
+    <hyperlink ref="J26" r:id="rId44"/>
+    <hyperlink ref="J17" r:id="rId45"/>
+    <hyperlink ref="J95" r:id="rId46"/>
+    <hyperlink ref="J85" r:id="rId47"/>
+    <hyperlink ref="J29" r:id="rId48"/>
+    <hyperlink ref="J49" r:id="rId49"/>
+    <hyperlink ref="J9" r:id="rId50"/>
+    <hyperlink ref="J73" r:id="rId51"/>
+    <hyperlink ref="J76" r:id="rId52"/>
+    <hyperlink ref="J25" r:id="rId53"/>
+    <hyperlink ref="J31" r:id="rId54"/>
+    <hyperlink ref="J45" r:id="rId55"/>
+    <hyperlink ref="J64" r:id="rId56"/>
+    <hyperlink ref="J69" r:id="rId57"/>
+    <hyperlink ref="J94" r:id="rId58"/>
+    <hyperlink ref="J86" r:id="rId59"/>
+    <hyperlink ref="J87" r:id="rId60"/>
+    <hyperlink ref="J84" r:id="rId61"/>
+    <hyperlink ref="J77" r:id="rId62"/>
+    <hyperlink ref="J91" r:id="rId63"/>
+    <hyperlink ref="J46" r:id="rId64"/>
+    <hyperlink ref="J39" r:id="rId65"/>
+    <hyperlink ref="J42" r:id="rId66"/>
+    <hyperlink ref="J88" r:id="rId67"/>
+    <hyperlink ref="J27" r:id="rId68" display="nobahar@delstatea.com"/>
+    <hyperlink ref="J61" r:id="rId69"/>
+    <hyperlink ref="J47" r:id="rId70"/>
+    <hyperlink ref="J28" r:id="rId71"/>
+    <hyperlink ref="J32" r:id="rId72"/>
+    <hyperlink ref="J74" r:id="rId73"/>
+    <hyperlink ref="J38" r:id="rId74"/>
+    <hyperlink ref="J44" r:id="rId75"/>
+    <hyperlink ref="J68" r:id="rId76"/>
+    <hyperlink ref="J22" r:id="rId77" display="mailto:info@classictea.co.ke"/>
+    <hyperlink ref="J54" r:id="rId78"/>
+    <hyperlink ref="J60" r:id="rId79"/>
+    <hyperlink ref="J67" r:id="rId80"/>
+    <hyperlink ref="J41" r:id="rId81"/>
+    <hyperlink ref="J30" r:id="rId82"/>
+    <hyperlink ref="J89" r:id="rId83"/>
+    <hyperlink ref="J4" r:id="rId84"/>
+    <hyperlink ref="J36" r:id="rId85"/>
+    <hyperlink ref="J37" r:id="rId86"/>
+    <hyperlink ref="J33" r:id="rId87"/>
+    <hyperlink ref="J15" r:id="rId88"/>
+    <hyperlink ref="J34" r:id="rId89"/>
+    <hyperlink ref="J35" r:id="rId90"/>
+    <hyperlink ref="J109" r:id="rId91"/>
+    <hyperlink ref="J106" r:id="rId92"/>
+    <hyperlink ref="J111" r:id="rId93"/>
+    <hyperlink ref="J99" r:id="rId94"/>
+    <hyperlink ref="J98" r:id="rId95"/>
+    <hyperlink ref="J101" r:id="rId96"/>
+    <hyperlink ref="J102" r:id="rId97"/>
+    <hyperlink ref="J100" r:id="rId98"/>
+    <hyperlink ref="J110" r:id="rId99"/>
+    <hyperlink ref="J107" r:id="rId100"/>
+    <hyperlink ref="J104" r:id="rId101"/>
+    <hyperlink ref="J108" r:id="rId102"/>
+    <hyperlink ref="J105" r:id="rId103"/>
+    <hyperlink ref="J103" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="296" orientation="portrait" r:id="rId91"/>
+  <pageSetup paperSize="296" orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="148" t="s">
         <v>1327</v>
       </c>
@@ -12357,7 +13233,7 @@
       </c>
       <c r="K3" s="151"/>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D4" s="149" t="s">
         <v>1328</v>
       </c>
@@ -12367,7 +13243,7 @@
       <c r="J4" s="149"/>
       <c r="K4" s="149"/>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D5" s="142"/>
       <c r="E5" s="142" t="s">
         <v>1343</v>
@@ -12383,7 +13259,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D6" s="144">
         <v>1</v>
       </c>
@@ -12403,7 +13279,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D7" s="144">
         <v>2</v>
       </c>
@@ -12423,7 +13299,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D8" s="144">
         <v>3</v>
       </c>
@@ -12443,7 +13319,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D9" s="144">
         <v>4</v>
       </c>
@@ -12463,7 +13339,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D10" s="144"/>
       <c r="E10" s="144"/>
       <c r="F10" s="145"/>
@@ -12475,7 +13351,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D11" s="149" t="s">
         <v>1333</v>
       </c>
@@ -12489,7 +13365,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D12" s="144">
         <v>1</v>
       </c>
@@ -12509,7 +13385,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D13" s="144">
         <v>2</v>
       </c>
@@ -12529,7 +13405,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D14" s="144">
         <v>3</v>
       </c>
@@ -12549,7 +13425,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D15" s="144">
         <v>4</v>
       </c>
@@ -12569,7 +13445,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D16" s="144">
         <v>5</v>
       </c>
@@ -12589,7 +13465,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="144">
         <v>6</v>
       </c>
@@ -12609,7 +13485,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="144">
         <v>7</v>
       </c>
@@ -12629,7 +13505,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="144">
         <v>8</v>
       </c>
@@ -12649,7 +13525,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="144">
         <v>9</v>
       </c>
@@ -12669,7 +13545,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="145"/>
       <c r="E21" s="145"/>
       <c r="F21" s="145"/>
@@ -12681,7 +13557,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J22" s="147">
         <v>17</v>
       </c>
@@ -12689,7 +13565,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J23" s="147">
         <v>18</v>
       </c>
@@ -12697,7 +13573,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J24" s="147">
         <v>19</v>
       </c>
@@ -12705,7 +13581,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J25" s="147">
         <v>20</v>
       </c>
